--- a/capiq_data/in_process_data/IQ278614.xlsx
+++ b/capiq_data/in_process_data/IQ278614.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5044AF2A-D4D2-4BC7-AB1E-8A9DFB7200D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6EFAB3-43BC-4D7E-8ADA-BEE3E09F32BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5e8cb1a1-65e9-4bf2-98fb-7e4cbb68ff3e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"105377af-9701-4300-9cfa-0fe63193bf2a"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>122.9</v>
+        <v>76.221999999999994</v>
       </c>
       <c r="D2">
-        <v>592.54100000000005</v>
+        <v>331.06700000000001</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>592.54100000000005</v>
+        <v>331.06700000000001</v>
       </c>
       <c r="G2">
-        <v>4016.2289999999998</v>
+        <v>2165.15</v>
       </c>
       <c r="H2">
-        <v>53819.642</v>
+        <v>28599.377</v>
       </c>
       <c r="I2">
-        <v>41853.898000000001</v>
+        <v>19777.244999999999</v>
       </c>
       <c r="J2">
-        <v>3813.8270000000002</v>
+        <v>3638.1260000000002</v>
       </c>
       <c r="K2">
-        <v>2277.6439999999998</v>
+        <v>1987.759</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>44792.650999999998</v>
+        <v>22595.204000000002</v>
       </c>
       <c r="O2">
-        <v>48839.1</v>
+        <v>26233.33</v>
       </c>
       <c r="P2">
-        <v>6091.4709999999995</v>
+        <v>5625.8850000000002</v>
       </c>
       <c r="Q2">
-        <v>-291.33800000000002</v>
+        <v>348.54300000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>11341</v>
+        <v>9693</v>
       </c>
       <c r="T2">
-        <v>4980.5420000000004</v>
+        <v>2366.047</v>
       </c>
       <c r="U2">
-        <v>847.88800000000003</v>
+        <v>1455.883</v>
       </c>
       <c r="V2">
-        <v>-25.292999999999999</v>
+        <v>140.155</v>
       </c>
       <c r="W2">
-        <v>-39.524999999999999</v>
+        <v>-50.396000000000001</v>
       </c>
       <c r="X2">
-        <v>676.22299999999996</v>
+        <v>-187.39400000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-210.30799999999999</v>
+        <v>781.96500000000003</v>
       </c>
       <c r="AA2">
-        <v>122.9</v>
+        <v>76.221999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>126.446</v>
+        <v>67.866</v>
       </c>
       <c r="D3">
-        <v>591.89</v>
+        <v>327.38400000000001</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>591.89</v>
+        <v>327.38400000000001</v>
       </c>
       <c r="G3">
-        <v>3503.8040000000001</v>
+        <v>2952.9189999999999</v>
       </c>
       <c r="H3">
-        <v>52948.508999999998</v>
+        <v>28441.187999999998</v>
       </c>
       <c r="I3">
-        <v>41366.487000000001</v>
+        <v>19130.156999999999</v>
       </c>
       <c r="J3">
-        <v>3409.5</v>
+        <v>3279.7959999999998</v>
       </c>
       <c r="K3">
-        <v>2242.288</v>
+        <v>2700.3510000000001</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-259.06299999999999</v>
+        <v>-679</v>
       </c>
       <c r="N3">
-        <v>44422.025000000001</v>
+        <v>22756.135999999999</v>
       </c>
       <c r="O3">
-        <v>47909.91</v>
+        <v>26035.932000000001</v>
       </c>
       <c r="P3">
-        <v>5651.7879999999996</v>
+        <v>5980.1469999999999</v>
       </c>
       <c r="Q3">
-        <v>360.93200000000002</v>
+        <v>-293.33600000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>11319</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>5038.5990000000002</v>
+        <v>2405.2559999999999</v>
       </c>
       <c r="U3">
-        <v>1208.82</v>
+        <v>1162.547</v>
       </c>
       <c r="V3">
-        <v>754.96100000000001</v>
+        <v>-128.63200000000001</v>
       </c>
       <c r="W3">
-        <v>-16.321000000000002</v>
+        <v>-50.173000000000002</v>
       </c>
       <c r="X3">
-        <v>-735.71299999999997</v>
+        <v>-362.81700000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>631.69200000000001</v>
+        <v>513.68100000000004</v>
       </c>
       <c r="AA3">
-        <v>126.446</v>
+        <v>67.866</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>145.91800000000001</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="D4">
-        <v>623.30700000000002</v>
+        <v>258.74099999999999</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>623.30700000000002</v>
+        <v>258.74099999999999</v>
       </c>
       <c r="G4">
-        <v>3185.5970000000002</v>
+        <v>2685.056</v>
       </c>
       <c r="H4">
-        <v>53050.038999999997</v>
+        <v>27948.15</v>
       </c>
       <c r="I4">
-        <v>41402.355000000003</v>
+        <v>18996.921999999999</v>
       </c>
       <c r="J4">
-        <v>3351.9319999999998</v>
+        <v>3173.9740000000002</v>
       </c>
       <c r="K4">
-        <v>2236.21</v>
+        <v>2585.7730000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>44332.008000000002</v>
+        <v>22420.653999999999</v>
       </c>
       <c r="O4">
-        <v>47797.396000000001</v>
+        <v>25594.628000000001</v>
       </c>
       <c r="P4">
-        <v>5588.1419999999998</v>
+        <v>5759.7470000000003</v>
       </c>
       <c r="Q4">
-        <v>-224.93799999999999</v>
+        <v>-194.136</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>11457</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>5252.643</v>
+        <v>2353.5219999999999</v>
       </c>
       <c r="U4">
-        <v>983.88199999999995</v>
+        <v>968.41099999999994</v>
       </c>
       <c r="V4">
-        <v>435.39400000000001</v>
+        <v>132.85499999999999</v>
       </c>
       <c r="W4">
-        <v>-16.329999999999998</v>
+        <v>-50.212000000000003</v>
       </c>
       <c r="X4">
-        <v>-243.69499999999999</v>
+        <v>-400.83</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>585.62199999999996</v>
+        <v>439.54199999999997</v>
       </c>
       <c r="AA4">
-        <v>145.91800000000001</v>
+        <v>2.3769999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>143.39099999999999</v>
+        <v>42.628999999999998</v>
       </c>
       <c r="D5">
-        <v>621.45100000000002</v>
+        <v>330.68400000000003</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>621.45100000000002</v>
+        <v>330.68400000000003</v>
       </c>
       <c r="G5">
-        <v>4566.4989999999998</v>
+        <v>2805.817</v>
       </c>
       <c r="H5">
-        <v>54978.707000000002</v>
+        <v>28316.174999999999</v>
       </c>
       <c r="I5">
-        <v>43219.726999999999</v>
+        <v>20071.387999999999</v>
       </c>
       <c r="J5">
-        <v>2972.9679999999998</v>
+        <v>3195.2080000000001</v>
       </c>
       <c r="K5">
-        <v>2508.8910000000001</v>
+        <v>1789.0429999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>46500.928</v>
+        <v>22716.561000000002</v>
       </c>
       <c r="O5">
-        <v>49578.228000000003</v>
+        <v>25911.769</v>
       </c>
       <c r="P5">
-        <v>5481.8590000000004</v>
+        <v>4984.2510000000002</v>
       </c>
       <c r="Q5">
-        <v>1206.394</v>
+        <v>205.18700000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>11473</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5400.4790000000003</v>
+        <v>2404.4059999999999</v>
       </c>
       <c r="U5">
-        <v>2190.2759999999998</v>
+        <v>1173.598</v>
       </c>
       <c r="V5">
-        <v>196.35900000000001</v>
+        <v>218.446</v>
       </c>
       <c r="W5">
-        <v>-17.501000000000001</v>
+        <v>-50.216000000000001</v>
       </c>
       <c r="X5">
-        <v>1553.0440000000001</v>
+        <v>244.489</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-539.822</v>
+        <v>278.16300000000001</v>
       </c>
       <c r="AA5">
-        <v>143.39099999999999</v>
+        <v>42.628999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>126.858</v>
+        <v>21.923999999999999</v>
       </c>
       <c r="D6">
-        <v>616.73500000000001</v>
+        <v>741.09500000000003</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>616.73500000000001</v>
+        <v>741.09500000000003</v>
       </c>
       <c r="G6">
-        <v>4651.8490000000002</v>
+        <v>2436.4540000000002</v>
       </c>
       <c r="H6">
-        <v>54450.652000000002</v>
+        <v>28416.945</v>
       </c>
       <c r="I6">
-        <v>43279.625</v>
+        <v>20187.304</v>
       </c>
       <c r="J6">
-        <v>3032.8980000000001</v>
+        <v>2989.3319999999999</v>
       </c>
       <c r="K6">
-        <v>1698.3720000000001</v>
+        <v>1955.9259999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>45799.343999999997</v>
+        <v>23035.716</v>
       </c>
       <c r="O6">
-        <v>49032.552000000003</v>
+        <v>26025.047999999999</v>
       </c>
       <c r="P6">
-        <v>4796.2290000000003</v>
+        <v>4945.2579999999998</v>
       </c>
       <c r="Q6">
-        <v>-1074.308</v>
+        <v>48.042999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>11245</v>
+        <v>9743</v>
       </c>
       <c r="T6">
-        <v>5418.1</v>
+        <v>2391.8969999999999</v>
       </c>
       <c r="U6">
-        <v>1115.9680000000001</v>
+        <v>1221.6410000000001</v>
       </c>
       <c r="V6">
-        <v>208.07300000000001</v>
+        <v>274.33699999999999</v>
       </c>
       <c r="W6">
-        <v>-42.252000000000002</v>
+        <v>-40.191000000000003</v>
       </c>
       <c r="X6">
-        <v>-595.63699999999994</v>
+        <v>99.352000000000004</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>610.74900000000002</v>
+        <v>131.61799999999999</v>
       </c>
       <c r="AA6">
-        <v>126.858</v>
+        <v>21.923999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>153.27000000000001</v>
+        <v>95.474999999999994</v>
       </c>
       <c r="D7">
-        <v>649.15599999999995</v>
+        <v>439.92200000000003</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>649.15599999999995</v>
+        <v>439.92200000000003</v>
       </c>
       <c r="G7">
-        <v>3426.9059999999999</v>
+        <v>1486.962</v>
       </c>
       <c r="H7">
-        <v>55876.654000000002</v>
+        <v>24745.954000000002</v>
       </c>
       <c r="I7">
-        <v>45008.964</v>
+        <v>16266.785</v>
       </c>
       <c r="J7">
-        <v>2609.3679999999999</v>
+        <v>3207.8049999999998</v>
       </c>
       <c r="K7">
-        <v>1742.4559999999999</v>
+        <v>1803.25</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-152.67599999999999</v>
       </c>
       <c r="M7">
-        <v>-522.87800000000004</v>
+        <v>-500</v>
       </c>
       <c r="N7">
-        <v>47651.356</v>
+        <v>19104.210999999999</v>
       </c>
       <c r="O7">
-        <v>50326.826000000001</v>
+        <v>22312.016</v>
       </c>
       <c r="P7">
-        <v>4351.8239999999996</v>
+        <v>5011.0550000000003</v>
       </c>
       <c r="Q7">
-        <v>-4.7510000000000003</v>
+        <v>-507.21100000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>11166</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>5549.8280000000004</v>
+        <v>2433.9380000000001</v>
       </c>
       <c r="U7">
-        <v>1111.2170000000001</v>
+        <v>714.43</v>
       </c>
       <c r="V7">
-        <v>277.27</v>
+        <v>627.46699999999998</v>
       </c>
       <c r="W7">
-        <v>-42.350999999999999</v>
+        <v>-40.201000000000001</v>
       </c>
       <c r="X7">
-        <v>521.25800000000004</v>
+        <v>811.71500000000003</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-755.74300000000005</v>
+        <v>-40.469000000000001</v>
       </c>
       <c r="AA7">
-        <v>153.27000000000001</v>
+        <v>95.474999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>152.70599999999999</v>
+        <v>70.977999999999994</v>
       </c>
       <c r="D8">
-        <v>652.92600000000004</v>
+        <v>419.09899999999999</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>652.92600000000004</v>
+        <v>419.09899999999999</v>
       </c>
       <c r="G8">
-        <v>5106.99</v>
+        <v>1677.2719999999999</v>
       </c>
       <c r="H8">
-        <v>56622.959000000003</v>
+        <v>25381.416000000001</v>
       </c>
       <c r="I8">
-        <v>46076.074999999997</v>
+        <v>16861.099999999999</v>
       </c>
       <c r="J8">
-        <v>2563.9119999999998</v>
+        <v>3026.1439999999998</v>
       </c>
       <c r="K8">
-        <v>1469.1379999999999</v>
+        <v>2064.2750000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>48320.34</v>
+        <v>20003.412</v>
       </c>
       <c r="O8">
-        <v>50973.728000000003</v>
+        <v>23029.556</v>
       </c>
       <c r="P8">
-        <v>4033.05</v>
+        <v>5090.4189999999999</v>
       </c>
       <c r="Q8">
-        <v>107.371</v>
+        <v>219.95500000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>11417</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>5649.2309999999998</v>
+        <v>2351.86</v>
       </c>
       <c r="U8">
-        <v>1218.588</v>
+        <v>934.38499999999999</v>
       </c>
       <c r="V8">
-        <v>283.505</v>
+        <v>117.783</v>
       </c>
       <c r="W8">
-        <v>-42.518000000000001</v>
+        <v>-39.991999999999997</v>
       </c>
       <c r="X8">
-        <v>524.74699999999996</v>
+        <v>460.46100000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>341.29199999999997</v>
+        <v>89.616</v>
       </c>
       <c r="AA8">
-        <v>152.70599999999999</v>
+        <v>70.977999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>167.767</v>
+        <v>88.015000000000001</v>
       </c>
       <c r="D9">
-        <v>669.14</v>
+        <v>411.01299999999998</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>669.14</v>
+        <v>411.01299999999998</v>
       </c>
       <c r="G9">
-        <v>4447.0619999999999</v>
+        <v>2013.4259999999999</v>
       </c>
       <c r="H9">
-        <v>56443</v>
+        <v>26739.011999999999</v>
       </c>
       <c r="I9">
-        <v>46741.286</v>
+        <v>17117.811000000002</v>
       </c>
       <c r="J9">
-        <v>1501.2919999999999</v>
+        <v>3593.9180000000001</v>
       </c>
       <c r="K9">
-        <v>1520.9649999999999</v>
+        <v>2620.0219999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>49042.773000000001</v>
+        <v>20805.308000000001</v>
       </c>
       <c r="O9">
-        <v>50635.396000000001</v>
+        <v>24399.225999999999</v>
       </c>
       <c r="P9">
-        <v>3022.2570000000001</v>
+        <v>6213.94</v>
       </c>
       <c r="Q9">
-        <v>-420.98700000000002</v>
+        <v>144.90199999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>11731</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>5807.6040000000003</v>
+        <v>2339.7860000000001</v>
       </c>
       <c r="U9">
-        <v>797.601</v>
+        <v>1079.287</v>
       </c>
       <c r="V9">
-        <v>113.90300000000001</v>
+        <v>244.14099999999999</v>
       </c>
       <c r="W9">
-        <v>-42.267000000000003</v>
+        <v>-39.052</v>
       </c>
       <c r="X9">
-        <v>-426.51499999999999</v>
+        <v>1174.6500000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-24.859000000000002</v>
+        <v>-91.608000000000004</v>
       </c>
       <c r="AA9">
-        <v>167.767</v>
+        <v>88.015000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>167.279</v>
+        <v>69.263000000000005</v>
       </c>
       <c r="D10">
-        <v>682.928</v>
+        <v>419.798</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>682.928</v>
+        <v>419.798</v>
       </c>
       <c r="G10">
-        <v>3526.7440000000001</v>
+        <v>2219.59</v>
       </c>
       <c r="H10">
-        <v>56153.184999999998</v>
+        <v>27527.932000000001</v>
       </c>
       <c r="I10">
-        <v>46252.682999999997</v>
+        <v>17499.326000000001</v>
       </c>
       <c r="J10">
-        <v>2314.942</v>
+        <v>4243.759</v>
       </c>
       <c r="K10">
-        <v>739.81100000000004</v>
+        <v>2141.0160000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>47806.108999999997</v>
+        <v>21044.38</v>
       </c>
       <c r="O10">
-        <v>50362.974000000002</v>
+        <v>25288.138999999999</v>
       </c>
       <c r="P10">
-        <v>3104.645</v>
+        <v>6637.817</v>
       </c>
       <c r="Q10">
-        <v>465.20499999999998</v>
+        <v>-60.524000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>8177</v>
       </c>
       <c r="T10">
-        <v>5790.2110000000002</v>
+        <v>2239.7930000000001</v>
       </c>
       <c r="U10">
-        <v>1262.806</v>
+        <v>1018.763</v>
       </c>
       <c r="V10">
-        <v>327.452</v>
+        <v>40.67</v>
       </c>
       <c r="W10">
-        <v>-42.198999999999998</v>
+        <v>-47.756999999999998</v>
       </c>
       <c r="X10">
-        <v>-391.80399999999997</v>
+        <v>719.88300000000004</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>32.447000000000003</v>
+        <v>-40.756</v>
       </c>
       <c r="AA10">
-        <v>167.279</v>
+        <v>69.263000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>153.274</v>
+        <v>91.73</v>
       </c>
       <c r="D11">
-        <v>637.54499999999996</v>
+        <v>437.839</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>637.54499999999996</v>
+        <v>437.839</v>
       </c>
       <c r="G11">
-        <v>3133.3690000000001</v>
+        <v>2218.9209999999998</v>
       </c>
       <c r="H11">
-        <v>56054.966</v>
+        <v>27871.253000000001</v>
       </c>
       <c r="I11">
-        <v>46867.141000000003</v>
+        <v>17688.984</v>
       </c>
       <c r="J11">
-        <v>1528.4659999999999</v>
+        <v>4659.902</v>
       </c>
       <c r="K11">
-        <v>940.25400000000002</v>
+        <v>2149.1280000000002</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-391.88799999999998</v>
       </c>
       <c r="M11">
-        <v>-1002.567</v>
+        <v>-365</v>
       </c>
       <c r="N11">
-        <v>48473.474999999999</v>
+        <v>21055.305</v>
       </c>
       <c r="O11">
-        <v>50187.828000000001</v>
+        <v>25715.206999999999</v>
       </c>
       <c r="P11">
-        <v>2468.7199999999998</v>
+        <v>6809.03</v>
       </c>
       <c r="Q11">
-        <v>-434.11799999999999</v>
+        <v>-108.52500000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>12052</v>
+        <v>8134</v>
       </c>
       <c r="T11">
-        <v>5867.1379999999999</v>
+        <v>2156.0459999999998</v>
       </c>
       <c r="U11">
-        <v>828.68799999999999</v>
+        <v>910.23800000000006</v>
       </c>
       <c r="V11">
-        <v>211.90899999999999</v>
+        <v>149.67599999999999</v>
       </c>
       <c r="W11">
-        <v>-41.655999999999999</v>
+        <v>-28.042000000000002</v>
       </c>
       <c r="X11">
-        <v>-130.346</v>
+        <v>224.84800000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>137.32900000000001</v>
+        <v>-167.25299999999999</v>
       </c>
       <c r="AA11">
-        <v>153.274</v>
+        <v>91.73</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>151</v>
+        <v>96.49</v>
       </c>
       <c r="D12">
-        <v>644.19399999999996</v>
+        <v>430.19900000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>644.19399999999996</v>
+        <v>430.19900000000001</v>
       </c>
       <c r="G12">
-        <v>2782.5940000000001</v>
+        <v>2738.6889999999999</v>
       </c>
       <c r="H12">
-        <v>56113.686999999998</v>
+        <v>28303.933000000001</v>
       </c>
       <c r="I12">
-        <v>46331.434000000001</v>
+        <v>18371.359</v>
       </c>
       <c r="J12">
-        <v>2252.9140000000002</v>
+        <v>5578.0630000000001</v>
       </c>
       <c r="K12">
-        <v>810.37699999999995</v>
+        <v>918.77099999999996</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>47877.322999999997</v>
+        <v>20523.670999999998</v>
       </c>
       <c r="O12">
-        <v>50330.171999999999</v>
+        <v>26101.734</v>
       </c>
       <c r="P12">
-        <v>3063.2910000000002</v>
+        <v>6496.8339999999998</v>
       </c>
       <c r="Q12">
-        <v>165.21799999999999</v>
+        <v>317.34300000000002</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>12155</v>
+        <v>8093</v>
       </c>
       <c r="T12">
-        <v>5783.5150000000003</v>
+        <v>2202.1990000000001</v>
       </c>
       <c r="U12">
-        <v>993.90599999999995</v>
+        <v>1227.5809999999999</v>
       </c>
       <c r="V12">
-        <v>197.179</v>
+        <v>68.456000000000003</v>
       </c>
       <c r="W12">
-        <v>-41.856000000000002</v>
+        <v>-45.671999999999997</v>
       </c>
       <c r="X12">
-        <v>58.280999999999999</v>
+        <v>288.03100000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>135.03200000000001</v>
+        <v>47.911000000000001</v>
       </c>
       <c r="AA12">
-        <v>151</v>
+        <v>96.49</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>178.83600000000001</v>
+        <v>90.882000000000005</v>
       </c>
       <c r="D13">
-        <v>667.351</v>
+        <v>428.512</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>667.351</v>
+        <v>428.512</v>
       </c>
       <c r="G13">
-        <v>2835.4810000000002</v>
+        <v>2081.1729999999998</v>
       </c>
       <c r="H13">
-        <v>56648.250999999997</v>
+        <v>30095.186000000002</v>
       </c>
       <c r="I13">
-        <v>46564.046000000002</v>
+        <v>18833.856</v>
       </c>
       <c r="J13">
-        <v>2349.6179999999999</v>
+        <v>6333.3329999999996</v>
       </c>
       <c r="K13">
-        <v>811.44399999999996</v>
+        <v>1400.047</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>48103.402999999998</v>
+        <v>21520.397000000001</v>
       </c>
       <c r="O13">
-        <v>50686.671999999999</v>
+        <v>27853.73</v>
       </c>
       <c r="P13">
-        <v>3161.0619999999999</v>
+        <v>7733.38</v>
       </c>
       <c r="Q13">
-        <v>113.752</v>
+        <v>-364.96199999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>11956</v>
+        <v>8054</v>
       </c>
       <c r="T13">
-        <v>5961.5789999999997</v>
+        <v>2241.4560000000001</v>
       </c>
       <c r="U13">
-        <v>1107.6579999999999</v>
+        <v>862.61900000000003</v>
       </c>
       <c r="V13">
-        <v>404.20600000000002</v>
+        <v>569.04700000000003</v>
       </c>
       <c r="W13">
-        <v>-49.444000000000003</v>
+        <v>-37.292999999999999</v>
       </c>
       <c r="X13">
-        <v>316.39100000000002</v>
+        <v>1013.968</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>321.94</v>
+        <v>-789.77700000000004</v>
       </c>
       <c r="AA13">
-        <v>178.83600000000001</v>
+        <v>90.882000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>158.172</v>
+        <v>93.260999999999996</v>
       </c>
       <c r="D14">
-        <v>655.64599999999996</v>
+        <v>444.48399999999998</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>655.64599999999996</v>
+        <v>444.48399999999998</v>
       </c>
       <c r="G14">
-        <v>2678.3739999999998</v>
+        <v>2060.0479999999998</v>
       </c>
       <c r="H14">
-        <v>59467.173999999999</v>
+        <v>30519.326000000001</v>
       </c>
       <c r="I14">
-        <v>47506.718000000001</v>
+        <v>18487.395</v>
       </c>
       <c r="J14">
-        <v>2333.163</v>
+        <v>6757.9790000000003</v>
       </c>
       <c r="K14">
-        <v>672.00099999999998</v>
+        <v>1452.3040000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>50930.989000000001</v>
+        <v>20746.288</v>
       </c>
       <c r="O14">
-        <v>53377.021000000001</v>
+        <v>28194.324000000001</v>
       </c>
       <c r="P14">
-        <v>4930.2730000000001</v>
+        <v>8210.2829999999994</v>
       </c>
       <c r="Q14">
-        <v>-106.526</v>
+        <v>133.88399999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>11964</v>
+        <v>7983</v>
       </c>
       <c r="T14">
-        <v>6090.1530000000002</v>
+        <v>2325.002</v>
       </c>
       <c r="U14">
-        <v>1001.1319999999999</v>
+        <v>996.50300000000004</v>
       </c>
       <c r="V14">
-        <v>199.95099999999999</v>
+        <v>552.09100000000001</v>
       </c>
       <c r="W14">
-        <v>-49.521000000000001</v>
+        <v>-40.015999999999998</v>
       </c>
       <c r="X14">
-        <v>2721.0880000000002</v>
+        <v>125.943</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-1843.529</v>
+        <v>-681.85</v>
       </c>
       <c r="AA14">
-        <v>158.172</v>
+        <v>93.260999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>149.143</v>
+        <v>104.173</v>
       </c>
       <c r="D15">
-        <v>664.70299999999997</v>
+        <v>424.72800000000001</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>664.70299999999997</v>
+        <v>424.72800000000001</v>
       </c>
       <c r="G15">
-        <v>2863.902</v>
+        <v>2105.491</v>
       </c>
       <c r="H15">
-        <v>61145.752999999997</v>
+        <v>31039.08</v>
       </c>
       <c r="I15">
-        <v>49348.752999999997</v>
+        <v>18988.846000000001</v>
       </c>
       <c r="J15">
-        <v>3156.652</v>
+        <v>6818.3040000000001</v>
       </c>
       <c r="K15">
-        <v>1533.9349999999999</v>
+        <v>1076.3019999999999</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-376.00200000000001</v>
       </c>
       <c r="M15">
-        <v>-1998.6990000000001</v>
+        <v>-350</v>
       </c>
       <c r="N15">
-        <v>51736.404999999999</v>
+        <v>21824.508000000002</v>
       </c>
       <c r="O15">
-        <v>54969.519</v>
+        <v>28674.901000000002</v>
       </c>
       <c r="P15">
-        <v>4690.5870000000004</v>
+        <v>7894.6059999999998</v>
       </c>
       <c r="Q15">
-        <v>-27.867999999999999</v>
+        <v>-5.23</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>11848</v>
+        <v>7915</v>
       </c>
       <c r="T15">
-        <v>6176.2340000000004</v>
+        <v>2364.1790000000001</v>
       </c>
       <c r="U15">
-        <v>973.26400000000001</v>
+        <v>991.27300000000002</v>
       </c>
       <c r="V15">
-        <v>155.964</v>
+        <v>193.86600000000001</v>
       </c>
       <c r="W15">
-        <v>-49.11</v>
+        <v>-40.268999999999998</v>
       </c>
       <c r="X15">
-        <v>772.68600000000004</v>
+        <v>58.02</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-240.57</v>
+        <v>-110.08199999999999</v>
       </c>
       <c r="AA15">
-        <v>149.143</v>
+        <v>104.173</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>164.619</v>
+        <v>110.127</v>
       </c>
       <c r="D16">
-        <v>677.38800000000003</v>
+        <v>435.66399999999999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>677.38800000000003</v>
+        <v>435.66399999999999</v>
       </c>
       <c r="G16">
-        <v>3309.4720000000002</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="H16">
-        <v>63797.112999999998</v>
+        <v>31421.205999999998</v>
       </c>
       <c r="I16">
-        <v>48748.764999999999</v>
+        <v>19465.146000000001</v>
       </c>
       <c r="J16">
-        <v>6469.3519999999999</v>
+        <v>6839.3339999999998</v>
       </c>
       <c r="K16">
-        <v>1368.56</v>
+        <v>1130.83</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>51014.794000000002</v>
+        <v>22164.31</v>
       </c>
       <c r="O16">
-        <v>57556.322</v>
+        <v>29034.837</v>
       </c>
       <c r="P16">
-        <v>7837.9120000000003</v>
+        <v>7970.1639999999998</v>
       </c>
       <c r="Q16">
-        <v>245.18899999999999</v>
+        <v>365.49400000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>8045</v>
       </c>
       <c r="T16">
-        <v>6240.7910000000002</v>
+        <v>2386.3690000000001</v>
       </c>
       <c r="U16">
-        <v>1218.453</v>
+        <v>1356.7670000000001</v>
       </c>
       <c r="V16">
-        <v>226.63499999999999</v>
+        <v>158.499</v>
       </c>
       <c r="W16">
-        <v>-49.402999999999999</v>
+        <v>-39.97</v>
       </c>
       <c r="X16">
-        <v>2409.2910000000002</v>
+        <v>601.46900000000005</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-594.41200000000003</v>
+        <v>92.866</v>
       </c>
       <c r="AA16">
-        <v>164.619</v>
+        <v>110.127</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>155.01599999999999</v>
+        <v>93.486000000000004</v>
       </c>
       <c r="D17">
-        <v>689.20399999999995</v>
+        <v>405.16399999999999</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>689.20399999999995</v>
+        <v>405.16399999999999</v>
       </c>
       <c r="G17">
-        <v>2729.652</v>
+        <v>3108.069</v>
       </c>
       <c r="H17">
-        <v>64330.629000000001</v>
+        <v>31807.492999999999</v>
       </c>
       <c r="I17">
-        <v>50129.837</v>
+        <v>20109.025000000001</v>
       </c>
       <c r="J17">
-        <v>5224.5879999999997</v>
+        <v>6405.54</v>
       </c>
       <c r="K17">
-        <v>1668.037</v>
+        <v>1215.8869999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>52752.565999999999</v>
+        <v>22911.028999999999</v>
       </c>
       <c r="O17">
-        <v>58046.419000000002</v>
+        <v>29346.576000000001</v>
       </c>
       <c r="P17">
-        <v>6892.625</v>
+        <v>7621.4269999999997</v>
       </c>
       <c r="Q17">
-        <v>-338.59100000000001</v>
+        <v>535.42399999999998</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>11946</v>
+        <v>7906</v>
       </c>
       <c r="T17">
-        <v>6284.21</v>
+        <v>2460.9169999999999</v>
       </c>
       <c r="U17">
-        <v>879.86199999999997</v>
+        <v>1892.191</v>
       </c>
       <c r="V17">
-        <v>246.62700000000001</v>
+        <v>171.97200000000001</v>
       </c>
       <c r="W17">
-        <v>-46.631</v>
+        <v>-41.533999999999999</v>
       </c>
       <c r="X17">
-        <v>-398.88299999999998</v>
+        <v>202.07300000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-129.80000000000001</v>
+        <v>885.87599999999998</v>
       </c>
       <c r="AA17">
-        <v>155.01599999999999</v>
+        <v>93.486000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>163.614</v>
+        <v>91.138999999999996</v>
       </c>
       <c r="D18">
-        <v>711.36599999999999</v>
+        <v>409.35399999999998</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>711.36599999999999</v>
+        <v>409.35399999999998</v>
       </c>
       <c r="G18">
-        <v>3026.732</v>
+        <v>2916.1950000000002</v>
       </c>
       <c r="H18">
-        <v>66298.009999999995</v>
+        <v>32565.496999999999</v>
       </c>
       <c r="I18">
-        <v>51732.150999999998</v>
+        <v>20768.161</v>
       </c>
       <c r="J18">
-        <v>4335.9620000000004</v>
+        <v>6176.8850000000002</v>
       </c>
       <c r="K18">
-        <v>1356.356</v>
+        <v>1207.2329999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>55436.930999999997</v>
+        <v>22984.159</v>
       </c>
       <c r="O18">
-        <v>59969.84</v>
+        <v>29977.859</v>
       </c>
       <c r="P18">
-        <v>7017.3180000000002</v>
+        <v>7484.1180000000004</v>
       </c>
       <c r="Q18">
-        <v>340.70299999999997</v>
+        <v>-386.83100000000002</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>11873</v>
+        <v>7812</v>
       </c>
       <c r="T18">
-        <v>6328.17</v>
+        <v>2587.6379999999999</v>
       </c>
       <c r="U18">
-        <v>1220.5650000000001</v>
+        <v>1505.36</v>
       </c>
       <c r="V18">
-        <v>259.56</v>
+        <v>3.879</v>
       </c>
       <c r="W18">
-        <v>-53.645000000000003</v>
+        <v>-46.302</v>
       </c>
       <c r="X18">
-        <v>1552.3340000000001</v>
+        <v>562.495</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-510.39400000000001</v>
+        <v>-27.805</v>
       </c>
       <c r="AA18">
-        <v>163.614</v>
+        <v>91.138999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>165.85400000000001</v>
+        <v>96.519000000000005</v>
       </c>
       <c r="D19">
-        <v>686.70699999999999</v>
+        <v>383.37400000000002</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>686.70699999999999</v>
+        <v>383.37400000000002</v>
       </c>
       <c r="G19">
-        <v>4190.9380000000001</v>
+        <v>2175.1759999999999</v>
       </c>
       <c r="H19">
-        <v>68002.660999999993</v>
+        <v>32182.598999999998</v>
       </c>
       <c r="I19">
-        <v>52832.695</v>
+        <v>21770.973000000002</v>
       </c>
       <c r="J19">
-        <v>5158.8360000000002</v>
+        <v>5068.1090000000004</v>
       </c>
       <c r="K19">
-        <v>1481.9770000000001</v>
+        <v>1033.4960000000001</v>
       </c>
       <c r="L19">
-        <v>-357.83100000000002</v>
+        <v>-173.73699999999999</v>
       </c>
       <c r="M19">
-        <v>-750.07600000000002</v>
+        <v>-1235.0060000000001</v>
       </c>
       <c r="N19">
-        <v>56370.351000000002</v>
+        <v>23711.955000000002</v>
       </c>
       <c r="O19">
-        <v>61540.707000000002</v>
+        <v>29592.826000000001</v>
       </c>
       <c r="P19">
-        <v>7515.8130000000001</v>
+        <v>6101.6049999999996</v>
       </c>
       <c r="Q19">
-        <v>-320.68900000000002</v>
+        <v>-445.68099999999998</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>11914</v>
+        <v>7813</v>
       </c>
       <c r="T19">
-        <v>6461.9539999999997</v>
+        <v>2589.7730000000001</v>
       </c>
       <c r="U19">
-        <v>899.87599999999998</v>
+        <v>1059.6790000000001</v>
       </c>
       <c r="V19">
-        <v>-18.257000000000001</v>
+        <v>409.858</v>
       </c>
       <c r="W19">
-        <v>-56.703000000000003</v>
+        <v>-45.384</v>
       </c>
       <c r="X19">
-        <v>866.37400000000002</v>
+        <v>-430.43200000000002</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-448.24700000000001</v>
+        <v>145.81399999999999</v>
       </c>
       <c r="AA19">
-        <v>165.85400000000001</v>
+        <v>96.519000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>196.20599999999999</v>
+        <v>106.425</v>
       </c>
       <c r="D20">
-        <v>739.07</v>
+        <v>385.17500000000001</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>739.07</v>
+        <v>385.17500000000001</v>
       </c>
       <c r="G20">
-        <v>3612.5419999999999</v>
+        <v>2915.402</v>
       </c>
       <c r="H20">
-        <v>68845.648000000001</v>
+        <v>32988.974000000002</v>
       </c>
       <c r="I20">
-        <v>53473.178999999996</v>
+        <v>22330.576000000001</v>
       </c>
       <c r="J20">
-        <v>5854.5839999999998</v>
+        <v>4984.3010000000004</v>
       </c>
       <c r="K20">
-        <v>1429.588</v>
+        <v>1266.5350000000001</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>56484.207000000002</v>
+        <v>24551.883000000002</v>
       </c>
       <c r="O20">
-        <v>62349.39</v>
+        <v>30358.199000000001</v>
       </c>
       <c r="P20">
-        <v>7659.1719999999996</v>
+        <v>6250.8360000000002</v>
       </c>
       <c r="Q20">
-        <v>480.09300000000002</v>
+        <v>38.063000000000002</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>12274</v>
+        <v>7713</v>
       </c>
       <c r="T20">
-        <v>6496.2579999999998</v>
+        <v>2630.7750000000001</v>
       </c>
       <c r="U20">
-        <v>1379.9690000000001</v>
+        <v>1097.742</v>
       </c>
       <c r="V20">
-        <v>104.352</v>
+        <v>-512.39800000000002</v>
       </c>
       <c r="W20">
-        <v>-56.54</v>
+        <v>-47.136000000000003</v>
       </c>
       <c r="X20">
-        <v>728.83799999999997</v>
+        <v>591.46</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-347.48099999999999</v>
+        <v>264.452</v>
       </c>
       <c r="AA20">
-        <v>196.20599999999999</v>
+        <v>106.425</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>152.58799999999999</v>
+        <v>108.574</v>
       </c>
       <c r="D21">
-        <v>738.57</v>
+        <v>384.678</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>738.57</v>
+        <v>384.678</v>
       </c>
       <c r="G21">
-        <v>3352.69</v>
+        <v>2371.5700000000002</v>
       </c>
       <c r="H21">
-        <v>70210.178</v>
+        <v>32762.988000000001</v>
       </c>
       <c r="I21">
-        <v>54244.711000000003</v>
+        <v>22349.121999999999</v>
       </c>
       <c r="J21">
-        <v>6359.4449999999997</v>
+        <v>4985.43</v>
       </c>
       <c r="K21">
-        <v>1343.489</v>
+        <v>1502.566</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>57258.358999999997</v>
+        <v>24348.440999999999</v>
       </c>
       <c r="O21">
-        <v>63627.540999999997</v>
+        <v>30140.312999999998</v>
       </c>
       <c r="P21">
-        <v>8102.9340000000002</v>
+        <v>6487.9960000000001</v>
       </c>
       <c r="Q21">
-        <v>-355.61099999999999</v>
+        <v>-215.99199999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>12367</v>
+        <v>7586</v>
       </c>
       <c r="T21">
-        <v>6582.6369999999997</v>
+        <v>2622.6750000000002</v>
       </c>
       <c r="U21">
-        <v>1024.3579999999999</v>
+        <v>881.75</v>
       </c>
       <c r="V21">
-        <v>314.73099999999999</v>
+        <v>435.46199999999999</v>
       </c>
       <c r="W21">
-        <v>-56.23</v>
+        <v>-49.902000000000001</v>
       </c>
       <c r="X21">
-        <v>1067.4269999999999</v>
+        <v>83.873999999999995</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-630.58699999999999</v>
+        <v>-508.209</v>
       </c>
       <c r="AA21">
-        <v>152.58799999999999</v>
+        <v>108.574</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>178.309</v>
+        <v>100.57299999999999</v>
       </c>
       <c r="D22">
-        <v>727.89800000000002</v>
+        <v>360.16699999999997</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>727.89800000000002</v>
+        <v>360.16699999999997</v>
       </c>
       <c r="G22">
-        <v>2615.2220000000002</v>
+        <v>2155.8679999999999</v>
       </c>
       <c r="H22">
-        <v>71018.301000000007</v>
+        <v>32764.805</v>
       </c>
       <c r="I22">
-        <v>55294.978999999999</v>
+        <v>22409.674999999999</v>
       </c>
       <c r="J22">
-        <v>6090.2479999999996</v>
+        <v>4547.4369999999999</v>
       </c>
       <c r="K22">
-        <v>759.62900000000002</v>
+        <v>1889.26</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>58333.447</v>
+        <v>24829.255000000001</v>
       </c>
       <c r="O22">
-        <v>64423.695</v>
+        <v>30157.304</v>
       </c>
       <c r="P22">
-        <v>7800.9930000000004</v>
+        <v>6436.6970000000001</v>
       </c>
       <c r="Q22">
-        <v>-177.202</v>
+        <v>159.02600000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>12243</v>
+        <v>7602</v>
       </c>
       <c r="T22">
-        <v>6594.6059999999998</v>
+        <v>2607.5010000000002</v>
       </c>
       <c r="U22">
-        <v>847.15599999999995</v>
+        <v>1040.7760000000001</v>
       </c>
       <c r="V22">
-        <v>632.53599999999994</v>
+        <v>341.77699999999999</v>
       </c>
       <c r="W22">
-        <v>-54.917000000000002</v>
+        <v>-58.206000000000003</v>
       </c>
       <c r="X22">
-        <v>859.24400000000003</v>
+        <v>-242.227</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-781.28099999999995</v>
+        <v>-275.54300000000001</v>
       </c>
       <c r="AA22">
-        <v>178.309</v>
+        <v>100.57299999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>171.31399999999999</v>
+        <v>104.456</v>
       </c>
       <c r="D23">
-        <v>733.69100000000003</v>
+        <v>383.67399999999998</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>733.69100000000003</v>
+        <v>383.67399999999998</v>
       </c>
       <c r="G23">
-        <v>2765.7530000000002</v>
+        <v>2519.107</v>
       </c>
       <c r="H23">
-        <v>72644.967000000004</v>
+        <v>35665.909</v>
       </c>
       <c r="I23">
-        <v>55628.841999999997</v>
+        <v>24555.163</v>
       </c>
       <c r="J23">
-        <v>7935.4120000000003</v>
+        <v>4977.4210000000003</v>
       </c>
       <c r="K23">
-        <v>806.50400000000002</v>
+        <v>1687.5360000000001</v>
       </c>
       <c r="L23">
-        <v>-147.339</v>
+        <v>-280.86399999999998</v>
       </c>
       <c r="M23">
-        <v>-195.47499999999999</v>
+        <v>-1387.5509999999999</v>
       </c>
       <c r="N23">
-        <v>57551.885000000002</v>
+        <v>26883.448</v>
       </c>
       <c r="O23">
-        <v>65487.296999999999</v>
+        <v>32585.728999999999</v>
       </c>
       <c r="P23">
-        <v>8741.9159999999993</v>
+        <v>6664.9570000000003</v>
       </c>
       <c r="Q23">
-        <v>-30.908000000000001</v>
+        <v>105.58</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>12386</v>
+        <v>8078</v>
       </c>
       <c r="T23">
-        <v>7157.67</v>
+        <v>3080.18</v>
       </c>
       <c r="U23">
-        <v>816.24800000000005</v>
+        <v>1146.356</v>
       </c>
       <c r="V23">
-        <v>191.79</v>
+        <v>25.254000000000001</v>
       </c>
       <c r="W23">
-        <v>-64.192999999999998</v>
+        <v>-41.677999999999997</v>
       </c>
       <c r="X23">
-        <v>1366.7449999999999</v>
+        <v>294.298</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-278.81599999999997</v>
+        <v>-287.64499999999998</v>
       </c>
       <c r="AA23">
-        <v>171.31399999999999</v>
+        <v>104.456</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>174.54</v>
+        <v>111.604</v>
       </c>
       <c r="D24">
-        <v>759.779</v>
+        <v>409.46899999999999</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>759.779</v>
+        <v>409.46899999999999</v>
       </c>
       <c r="G24">
-        <v>3011.259</v>
+        <v>2733.3339999999998</v>
       </c>
       <c r="H24">
-        <v>73954.017000000007</v>
+        <v>36265.777000000002</v>
       </c>
       <c r="I24">
-        <v>55043.464999999997</v>
+        <v>24592.932000000001</v>
       </c>
       <c r="J24">
-        <v>7929.82</v>
+        <v>5243.74</v>
       </c>
       <c r="K24">
-        <v>2273.6799999999998</v>
+        <v>2125.9319999999998</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>58516.892999999996</v>
+        <v>27428.423999999999</v>
       </c>
       <c r="O24">
-        <v>66446.713000000003</v>
+        <v>33326.620999999999</v>
       </c>
       <c r="P24">
-        <v>10203.5</v>
+        <v>7369.6719999999996</v>
       </c>
       <c r="Q24">
-        <v>50.932000000000002</v>
+        <v>95.356999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>12363</v>
+        <v>8075</v>
       </c>
       <c r="T24">
-        <v>7507.3040000000001</v>
+        <v>2939.1559999999999</v>
       </c>
       <c r="U24">
-        <v>867.18</v>
+        <v>1241.713</v>
       </c>
       <c r="V24">
-        <v>94.847999999999999</v>
+        <v>-122.752</v>
       </c>
       <c r="W24">
-        <v>-75.766000000000005</v>
+        <v>-61.417999999999999</v>
       </c>
       <c r="X24">
-        <v>962.63400000000001</v>
+        <v>532.471</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>14.987</v>
+        <v>-130.358</v>
       </c>
       <c r="AA24">
-        <v>174.54</v>
+        <v>111.604</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>127.004</v>
+        <v>157.446</v>
       </c>
       <c r="D25">
-        <v>861.45699999999999</v>
+        <v>339.06099999999998</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>861.45699999999999</v>
+        <v>339.06099999999998</v>
       </c>
       <c r="G25">
-        <v>6872.7089999999998</v>
+        <v>2669.3270000000002</v>
       </c>
       <c r="H25">
-        <v>100765.412</v>
+        <v>35661.947999999997</v>
       </c>
       <c r="I25">
-        <v>77405.096000000005</v>
+        <v>24738.395</v>
       </c>
       <c r="J25">
-        <v>8998.5709999999999</v>
+        <v>5089.74</v>
       </c>
       <c r="K25">
-        <v>2262.357</v>
+        <v>1532.5039999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>81380.076000000001</v>
+        <v>26827.170999999998</v>
       </c>
       <c r="O25">
-        <v>90378.646999999997</v>
+        <v>32532.202000000001</v>
       </c>
       <c r="P25">
-        <v>11260.928</v>
+        <v>6622.2439999999997</v>
       </c>
       <c r="Q25">
-        <v>794.75900000000001</v>
+        <v>-23.207000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>14511</v>
+        <v>8077</v>
       </c>
       <c r="T25">
-        <v>10386.764999999999</v>
+        <v>3129.7460000000001</v>
       </c>
       <c r="U25">
-        <v>1661.9390000000001</v>
+        <v>1218.5060000000001</v>
       </c>
       <c r="V25">
-        <v>399.16800000000001</v>
+        <v>142.03</v>
       </c>
       <c r="W25">
-        <v>-75.105999999999995</v>
+        <v>-58.81</v>
       </c>
       <c r="X25">
-        <v>659.58500000000004</v>
+        <v>-674.71600000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>872.40099999999995</v>
+        <v>530.95399999999995</v>
       </c>
       <c r="AA25">
-        <v>127.004</v>
+        <v>157.446</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>239.142</v>
+        <v>87.715000000000003</v>
       </c>
       <c r="D26">
-        <v>971.072</v>
+        <v>382.851</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>971.072</v>
+        <v>382.851</v>
       </c>
       <c r="G26">
-        <v>3574</v>
+        <v>2861.471</v>
       </c>
       <c r="H26">
-        <v>99714</v>
+        <v>35329.019</v>
       </c>
       <c r="I26">
-        <v>75608</v>
+        <v>25047.77</v>
       </c>
       <c r="J26">
-        <v>7560</v>
+        <v>4462.6180000000004</v>
       </c>
       <c r="K26">
-        <v>3791</v>
+        <v>1676.1890000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>81846</v>
+        <v>27802.075000000001</v>
       </c>
       <c r="O26">
-        <v>89406</v>
+        <v>32264.692999999999</v>
       </c>
       <c r="P26">
-        <v>12100</v>
+        <v>6138.8069999999998</v>
       </c>
       <c r="Q26">
-        <v>-276.78300000000002</v>
+        <v>302.24099999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>15993</v>
+        <v>8081</v>
       </c>
       <c r="T26">
-        <v>10308</v>
+        <v>3064.326</v>
       </c>
       <c r="U26">
-        <v>1385</v>
+        <v>1520.7470000000001</v>
       </c>
       <c r="V26">
-        <v>529.19399999999996</v>
+        <v>179.92699999999999</v>
       </c>
       <c r="W26">
-        <v>-83.935000000000002</v>
+        <v>-69.210999999999999</v>
       </c>
       <c r="X26">
-        <v>-220.964</v>
+        <v>-307.83699999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-1991.5719999999999</v>
+        <v>256.26100000000002</v>
       </c>
       <c r="AA26">
-        <v>239.142</v>
+        <v>87.715000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>208</v>
+        <v>95.725999999999999</v>
       </c>
       <c r="D27">
-        <v>972</v>
+        <v>371.32600000000002</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>972</v>
+        <v>371.32600000000002</v>
       </c>
       <c r="G27">
-        <v>3446.1190000000001</v>
+        <v>3033.39</v>
       </c>
       <c r="H27">
-        <v>100045.50599999999</v>
+        <v>34979.298999999999</v>
       </c>
       <c r="I27">
-        <v>77422.509999999995</v>
+        <v>24585.893</v>
       </c>
       <c r="J27">
-        <v>9279.14</v>
+        <v>4652.0990000000002</v>
       </c>
       <c r="K27">
-        <v>1346.982</v>
+        <v>1577.732</v>
       </c>
       <c r="L27">
-        <v>-2433</v>
+        <v>-98.456999999999994</v>
       </c>
       <c r="M27">
-        <v>-48</v>
+        <v>-70.033000000000001</v>
       </c>
       <c r="N27">
-        <v>80237.380999999994</v>
+        <v>26879.834999999999</v>
       </c>
       <c r="O27">
-        <v>89608.358999999997</v>
+        <v>31927.938999999998</v>
       </c>
       <c r="P27">
-        <v>10626.121999999999</v>
+        <v>6229.8310000000001</v>
       </c>
       <c r="Q27">
-        <v>-75</v>
+        <v>48.46</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>16331</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>10437.147000000001</v>
+        <v>3051.36</v>
       </c>
       <c r="U27">
-        <v>1308.8130000000001</v>
+        <v>1569.2070000000001</v>
       </c>
       <c r="V27">
-        <v>396</v>
+        <v>180.93100000000001</v>
       </c>
       <c r="W27">
-        <v>-106</v>
+        <v>-61.54</v>
       </c>
       <c r="X27">
-        <v>265</v>
+        <v>-494.31099999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-319</v>
+        <v>497.00599999999997</v>
       </c>
       <c r="AA27">
-        <v>208</v>
+        <v>95.725999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>272</v>
+        <v>80.521000000000001</v>
       </c>
       <c r="D28">
-        <v>1048</v>
+        <v>349.45100000000002</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1048</v>
+        <v>349.45100000000002</v>
       </c>
       <c r="G28">
-        <v>3836.2649999999999</v>
+        <v>3768.2280000000001</v>
       </c>
       <c r="H28">
-        <v>101406.77899999999</v>
+        <v>36420.686000000002</v>
       </c>
       <c r="I28">
-        <v>75933.373000000007</v>
+        <v>24599.912</v>
       </c>
       <c r="J28">
-        <v>8536.4709999999995</v>
+        <v>4907.7939999999999</v>
       </c>
       <c r="K28">
-        <v>4631.2349999999997</v>
+        <v>2860.9389999999999</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>82216.126000000004</v>
+        <v>28448.751</v>
       </c>
       <c r="O28">
-        <v>90752.596999999994</v>
+        <v>33356.544999999998</v>
       </c>
       <c r="P28">
-        <v>13167.706</v>
+        <v>7768.7330000000002</v>
       </c>
       <c r="Q28">
-        <v>205</v>
+        <v>106.75</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>16103</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>10654.182000000001</v>
+        <v>3064.1410000000001</v>
       </c>
       <c r="U28">
-        <v>1515.4760000000001</v>
+        <v>1675.9570000000001</v>
       </c>
       <c r="V28">
-        <v>163</v>
+        <v>-664.01800000000003</v>
       </c>
       <c r="W28">
-        <v>-106</v>
+        <v>-62.463000000000001</v>
       </c>
       <c r="X28">
-        <v>886</v>
+        <v>1535.393</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>89</v>
+        <v>-168.173</v>
       </c>
       <c r="AA28">
-        <v>272</v>
+        <v>80.521000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>274</v>
+        <v>138.202</v>
       </c>
       <c r="D29">
-        <v>1044</v>
+        <v>572.29999999999995</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1044</v>
+        <v>572.29999999999995</v>
       </c>
       <c r="G29">
-        <v>3401.1489999999999</v>
+        <v>5964.4139999999998</v>
       </c>
       <c r="H29">
-        <v>101988.126</v>
+        <v>55303.927000000003</v>
       </c>
       <c r="I29">
-        <v>78445.112999999998</v>
+        <v>38404.364999999998</v>
       </c>
       <c r="J29">
-        <v>9200.7070000000003</v>
+        <v>6610.277</v>
       </c>
       <c r="K29">
-        <v>1888.673</v>
+        <v>2227.116</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>82088.570000000007</v>
+        <v>42443.976000000002</v>
       </c>
       <c r="O29">
-        <v>91289.277000000002</v>
+        <v>49054.252999999997</v>
       </c>
       <c r="P29">
-        <v>11089.38</v>
+        <v>8837.393</v>
       </c>
       <c r="Q29">
-        <v>-321</v>
+        <v>-42.731999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>15508</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>10698.849</v>
+        <v>6249.674</v>
       </c>
       <c r="U29">
-        <v>1193.7380000000001</v>
+        <v>1633.2249999999999</v>
       </c>
       <c r="V29">
-        <v>547</v>
+        <v>-945.91300000000001</v>
       </c>
       <c r="W29">
-        <v>-107</v>
+        <v>-69.563999999999993</v>
       </c>
       <c r="X29">
-        <v>254</v>
+        <v>1026.021</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-519</v>
+        <v>319.53800000000001</v>
       </c>
       <c r="AA29">
-        <v>275</v>
+        <v>138.202</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>432</v>
+        <v>-239.28</v>
       </c>
       <c r="D30">
-        <v>1043</v>
+        <v>57.540999999999997</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1043</v>
+        <v>57.540999999999997</v>
       </c>
       <c r="G30">
-        <v>2306</v>
+        <v>4977.3689999999997</v>
       </c>
       <c r="H30">
-        <v>104185</v>
+        <v>54697.468000000001</v>
       </c>
       <c r="I30">
-        <v>77041</v>
+        <v>37742.921000000002</v>
       </c>
       <c r="J30">
-        <v>6555</v>
+        <v>6995.79</v>
       </c>
       <c r="K30">
-        <v>5142</v>
+        <v>2843.6379999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>84834</v>
+        <v>41702.538</v>
       </c>
       <c r="O30">
-        <v>93371</v>
+        <v>48698.328000000001</v>
       </c>
       <c r="P30">
-        <v>14348</v>
+        <v>9839.4279999999999</v>
       </c>
       <c r="Q30">
-        <v>326</v>
+        <v>376.02100000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>15770</v>
+        <v>11925</v>
       </c>
       <c r="T30">
-        <v>10814</v>
+        <v>5999.14</v>
       </c>
       <c r="U30">
-        <v>1520</v>
+        <v>2009.2460000000001</v>
       </c>
       <c r="V30">
-        <v>848</v>
+        <v>1086.221</v>
       </c>
       <c r="W30">
-        <v>-106</v>
+        <v>-96.191000000000003</v>
       </c>
       <c r="X30">
-        <v>1642</v>
+        <v>169.54499999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-496</v>
+        <v>-221.01</v>
       </c>
       <c r="AA30">
-        <v>432</v>
+        <v>-239.28</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>326</v>
+        <v>127.068</v>
       </c>
       <c r="D31">
-        <v>1011</v>
+        <v>523.92600000000004</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1011</v>
+        <v>523.92600000000004</v>
       </c>
       <c r="G31">
-        <v>3273</v>
+        <v>5832.3419999999996</v>
       </c>
       <c r="H31">
-        <v>104246</v>
+        <v>56051.968999999997</v>
       </c>
       <c r="I31">
-        <v>79471</v>
+        <v>38116.341</v>
       </c>
       <c r="J31">
-        <v>8618</v>
+        <v>7522.2569999999996</v>
       </c>
       <c r="K31">
-        <v>2944</v>
+        <v>3336.7379999999998</v>
       </c>
       <c r="L31">
-        <v>-2181</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-572</v>
+        <v>-96.471999999999994</v>
       </c>
       <c r="N31">
-        <v>84320</v>
+        <v>42623.133000000002</v>
       </c>
       <c r="O31">
-        <v>92938</v>
+        <v>50145.39</v>
       </c>
       <c r="P31">
-        <v>11562</v>
+        <v>10858.995000000001</v>
       </c>
       <c r="Q31">
-        <v>-451</v>
+        <v>271.99599999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>15599</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>11308</v>
+        <v>5906.5789999999997</v>
       </c>
       <c r="U31">
-        <v>1069</v>
+        <v>2281.2420000000002</v>
       </c>
       <c r="V31">
-        <v>294</v>
+        <v>-5.46</v>
       </c>
       <c r="W31">
-        <v>-137</v>
+        <v>-96.796999999999997</v>
       </c>
       <c r="X31">
-        <v>31</v>
+        <v>1312.742</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>352</v>
+        <v>28.210999999999999</v>
       </c>
       <c r="AA31">
-        <v>326</v>
+        <v>127.068</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>355</v>
+        <v>101.352</v>
       </c>
       <c r="D32">
-        <v>1065</v>
+        <v>505.483</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1065</v>
+        <v>505.483</v>
       </c>
       <c r="G32">
-        <v>3831</v>
+        <v>4610.9129999999996</v>
       </c>
       <c r="H32">
-        <v>105358</v>
+        <v>55333.841</v>
       </c>
       <c r="I32">
-        <v>79587</v>
+        <v>38124.425999999999</v>
       </c>
       <c r="J32">
-        <v>9726</v>
+        <v>7546.1549999999997</v>
       </c>
       <c r="K32">
-        <v>2644</v>
+        <v>2313.19</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>84160</v>
+        <v>41406.421000000002</v>
       </c>
       <c r="O32">
-        <v>93886</v>
+        <v>48952.576000000001</v>
       </c>
       <c r="P32">
-        <v>12370</v>
+        <v>9859.3449999999993</v>
       </c>
       <c r="Q32">
-        <v>313</v>
+        <v>-923.09</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>11472</v>
+        <v>6381.2650000000003</v>
       </c>
       <c r="U32">
-        <v>1382</v>
+        <v>1358.152</v>
       </c>
       <c r="V32">
-        <v>308</v>
+        <v>285.404</v>
       </c>
       <c r="W32">
-        <v>-133</v>
+        <v>-86.823999999999998</v>
       </c>
       <c r="X32">
-        <v>687</v>
+        <v>-505.637</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>610</v>
+        <v>-541.94000000000005</v>
       </c>
       <c r="AA32">
-        <v>355</v>
+        <v>101.352</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>378</v>
+        <v>75.063000000000002</v>
       </c>
       <c r="D33">
-        <v>1090</v>
+        <v>431.101</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1090</v>
+        <v>431.101</v>
       </c>
       <c r="G33">
-        <v>3732</v>
+        <v>4032.8609999999999</v>
       </c>
       <c r="H33">
-        <v>105652</v>
+        <v>54660.589</v>
       </c>
       <c r="I33">
-        <v>81689</v>
+        <v>37569.055999999997</v>
       </c>
       <c r="J33">
-        <v>9385</v>
+        <v>7844.7309999999998</v>
       </c>
       <c r="K33">
-        <v>1568</v>
+        <v>1974.3679999999999</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>85333</v>
+        <v>40441.951999999997</v>
       </c>
       <c r="O33">
-        <v>94718</v>
+        <v>48286.682999999997</v>
       </c>
       <c r="P33">
-        <v>10953</v>
+        <v>9819.0990000000002</v>
       </c>
       <c r="Q33">
-        <v>-83</v>
+        <v>-187.39400000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>15772</v>
+        <v>10428</v>
       </c>
       <c r="T33">
-        <v>10934</v>
+        <v>6373.9059999999999</v>
       </c>
       <c r="U33">
-        <v>1299</v>
+        <v>1170.758</v>
       </c>
       <c r="V33">
-        <v>542</v>
+        <v>692.65200000000004</v>
       </c>
       <c r="W33">
-        <v>-143</v>
+        <v>-59.506</v>
       </c>
       <c r="X33">
-        <v>-106</v>
+        <v>-675.35900000000004</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>513</v>
+        <v>69.275000000000006</v>
       </c>
       <c r="AA33">
-        <v>378</v>
+        <v>75.063000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>334</v>
+        <v>-417.28899999999999</v>
       </c>
       <c r="D34">
-        <v>1107</v>
+        <v>-226.476</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1107</v>
+        <v>-226.476</v>
       </c>
       <c r="G34">
-        <v>3866</v>
+        <v>3435.54</v>
       </c>
       <c r="H34">
-        <v>108781</v>
+        <v>54352.858999999997</v>
       </c>
       <c r="I34">
-        <v>84774</v>
+        <v>37943.286</v>
       </c>
       <c r="J34">
-        <v>8051</v>
+        <v>7247.9539999999997</v>
       </c>
       <c r="K34">
-        <v>2204</v>
+        <v>1309.1569999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>87552</v>
+        <v>39826.199000000001</v>
       </c>
       <c r="O34">
-        <v>97679</v>
+        <v>47123.953000000001</v>
       </c>
       <c r="P34">
-        <v>10829</v>
+        <v>8557.1110000000008</v>
       </c>
       <c r="Q34">
-        <v>1373</v>
+        <v>-326.08999999999997</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>15693</v>
+        <v>10951</v>
       </c>
       <c r="T34">
-        <v>11102</v>
+        <v>7228.9059999999999</v>
       </c>
       <c r="U34">
-        <v>2672</v>
+        <v>844.66800000000001</v>
       </c>
       <c r="V34">
-        <v>582</v>
+        <v>264.733</v>
       </c>
       <c r="W34">
-        <v>-171</v>
+        <v>-59.722999999999999</v>
       </c>
       <c r="X34">
-        <v>2477</v>
+        <v>166.05500000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>63</v>
+        <v>-180.423</v>
       </c>
       <c r="AA34">
-        <v>334</v>
+        <v>-417.28899999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>358</v>
+        <v>-2433.2069999999999</v>
       </c>
       <c r="D35">
-        <v>1073</v>
+        <v>284.77</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1073</v>
+        <v>284.77</v>
       </c>
       <c r="G35">
-        <v>2627</v>
+        <v>5170.5320000000002</v>
       </c>
       <c r="H35">
-        <v>108203</v>
+        <v>51702.125</v>
       </c>
       <c r="I35">
-        <v>82155</v>
+        <v>39070.273000000001</v>
       </c>
       <c r="J35">
-        <v>9400</v>
+        <v>5597.7820000000002</v>
       </c>
       <c r="K35">
-        <v>2949</v>
+        <v>1409.0039999999999</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-2129.6909999999998</v>
       </c>
       <c r="M35">
-        <v>-113</v>
+        <v>-225.46</v>
       </c>
       <c r="N35">
-        <v>85126</v>
+        <v>41247.307000000001</v>
       </c>
       <c r="O35">
-        <v>96771</v>
+        <v>46887.389000000003</v>
       </c>
       <c r="P35">
-        <v>12577</v>
+        <v>7006.7860000000001</v>
       </c>
       <c r="Q35">
-        <v>-1336</v>
+        <v>1428.163</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>15738</v>
+        <v>10533</v>
       </c>
       <c r="T35">
-        <v>11432</v>
+        <v>4814.7359999999999</v>
       </c>
       <c r="U35">
-        <v>1336</v>
+        <v>2272.8310000000001</v>
       </c>
       <c r="V35">
-        <v>497</v>
+        <v>1059.5719999999999</v>
       </c>
       <c r="W35">
-        <v>-166</v>
+        <v>-70.018000000000001</v>
       </c>
       <c r="X35">
-        <v>-1318</v>
+        <v>-498.58199999999999</v>
       </c>
       <c r="Y35">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-313</v>
+        <v>31.562000000000001</v>
       </c>
       <c r="AA35">
-        <v>358</v>
+        <v>-2433.2069999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>364</v>
+        <v>-125.095</v>
       </c>
       <c r="D36">
-        <v>1127</v>
+        <v>202.137</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1127</v>
+        <v>202.137</v>
       </c>
       <c r="G36">
-        <v>3148</v>
+        <v>4595.2380000000003</v>
       </c>
       <c r="H36">
-        <v>108247</v>
+        <v>51397.252</v>
       </c>
       <c r="I36">
-        <v>80882</v>
+        <v>39165.131999999998</v>
       </c>
       <c r="J36">
-        <v>8973</v>
+        <v>5107.9679999999998</v>
       </c>
       <c r="K36">
-        <v>4278</v>
+        <v>1139.7059999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>85182</v>
+        <v>40898.962</v>
       </c>
       <c r="O36">
-        <v>96579</v>
+        <v>46176.73</v>
       </c>
       <c r="P36">
-        <v>13479</v>
+        <v>6247.674</v>
       </c>
       <c r="Q36">
-        <v>262</v>
+        <v>-180.227</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>15780</v>
+        <v>10252</v>
       </c>
       <c r="T36">
-        <v>11668</v>
+        <v>5220.5219999999999</v>
       </c>
       <c r="U36">
-        <v>1598</v>
+        <v>2092.6039999999998</v>
       </c>
       <c r="V36">
-        <v>355</v>
+        <v>488.995</v>
       </c>
       <c r="W36">
-        <v>-166</v>
+        <v>-30.667000000000002</v>
       </c>
       <c r="X36">
-        <v>-29</v>
+        <v>-87.058000000000007</v>
       </c>
       <c r="Y36">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>589</v>
+        <v>-1425.423</v>
       </c>
       <c r="AA36">
-        <v>364</v>
+        <v>-125.095</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>372</v>
+        <v>-166.19</v>
       </c>
       <c r="D37">
-        <v>1104</v>
+        <v>143.73500000000001</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1104</v>
+        <v>143.73500000000001</v>
       </c>
       <c r="G37">
-        <v>3529</v>
+        <v>4371.817</v>
       </c>
       <c r="H37">
-        <v>108735</v>
+        <v>52512.659</v>
       </c>
       <c r="I37">
-        <v>82395</v>
+        <v>39829.057000000001</v>
       </c>
       <c r="J37">
-        <v>9874</v>
+        <v>5297.1689999999999</v>
       </c>
       <c r="K37">
-        <v>2300</v>
+        <v>852.07600000000002</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>84705</v>
+        <v>41453.784</v>
       </c>
       <c r="O37">
-        <v>96826</v>
+        <v>46837.553</v>
       </c>
       <c r="P37">
-        <v>12399</v>
+        <v>6149.2449999999999</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>-210.49600000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>15659</v>
+        <v>10194</v>
       </c>
       <c r="T37">
-        <v>11909</v>
+        <v>5675.1059999999998</v>
       </c>
       <c r="U37">
-        <v>1636</v>
+        <v>1882.1079999999999</v>
       </c>
       <c r="V37">
-        <v>46</v>
+        <v>289.98099999999999</v>
       </c>
       <c r="W37">
-        <v>-165</v>
+        <v>-30.748000000000001</v>
       </c>
       <c r="X37">
-        <v>176</v>
+        <v>1308.7840000000001</v>
       </c>
       <c r="Y37">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-199</v>
+        <v>-2599.1289999999999</v>
       </c>
       <c r="AA37">
-        <v>372</v>
+        <v>-166.19</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>317</v>
+        <v>-369.68700000000001</v>
       </c>
       <c r="D38">
-        <v>1072</v>
+        <v>-309.68700000000001</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1072</v>
+        <v>-309.68700000000001</v>
       </c>
       <c r="G38">
-        <v>2749</v>
+        <v>4647.72</v>
       </c>
       <c r="H38">
-        <v>109002</v>
+        <v>51554.665000000001</v>
       </c>
       <c r="I38">
-        <v>82347</v>
+        <v>40493.927000000003</v>
       </c>
       <c r="J38">
-        <v>7546</v>
+        <v>3802.67</v>
       </c>
       <c r="K38">
-        <v>2710</v>
+        <v>1113.731</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>87360</v>
+        <v>42216.654999999999</v>
       </c>
       <c r="O38">
-        <v>97207</v>
+        <v>46218.663</v>
       </c>
       <c r="P38">
-        <v>12792</v>
+        <v>4916.4009999999998</v>
       </c>
       <c r="Q38">
-        <v>-466</v>
+        <v>-360.76400000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>15664</v>
+        <v>10272</v>
       </c>
       <c r="T38">
-        <v>11795</v>
+        <v>5336.0020000000004</v>
       </c>
       <c r="U38">
-        <v>1170</v>
+        <v>1521.3440000000001</v>
       </c>
       <c r="V38">
-        <v>676</v>
+        <v>127.714</v>
       </c>
       <c r="W38">
-        <v>-174</v>
+        <v>-30.855</v>
       </c>
       <c r="X38">
-        <v>-28</v>
+        <v>-417.36900000000003</v>
       </c>
       <c r="Y38">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-696</v>
+        <v>-123.285</v>
       </c>
       <c r="AA38">
-        <v>317</v>
+        <v>-369.68700000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>48</v>
+        <v>39.737000000000002</v>
       </c>
       <c r="D39">
-        <v>708</v>
+        <v>399.73700000000002</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>708</v>
+        <v>399.73700000000002</v>
       </c>
       <c r="G39">
-        <v>4293</v>
+        <v>4468.6490000000003</v>
       </c>
       <c r="H39">
-        <v>113897</v>
+        <v>51866.798000000003</v>
       </c>
       <c r="I39">
-        <v>86830</v>
+        <v>40303.466999999997</v>
       </c>
       <c r="J39">
-        <v>9796</v>
+        <v>4388.6559999999999</v>
       </c>
       <c r="K39">
-        <v>3132</v>
+        <v>980.83900000000006</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-11.153</v>
       </c>
       <c r="M39">
-        <v>-1540</v>
+        <v>-278.25700000000001</v>
       </c>
       <c r="N39">
-        <v>89962</v>
+        <v>42022.455999999998</v>
       </c>
       <c r="O39">
-        <v>102128</v>
+        <v>46497.112000000001</v>
       </c>
       <c r="P39">
-        <v>12928</v>
+        <v>5369.4949999999999</v>
       </c>
       <c r="Q39">
-        <v>597</v>
+        <v>-210.70400000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>15386</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>11769</v>
+        <v>5369.6859999999997</v>
       </c>
       <c r="U39">
-        <v>1767</v>
+        <v>1310.6400000000001</v>
       </c>
       <c r="V39">
-        <v>498</v>
+        <v>316.13299999999998</v>
       </c>
       <c r="W39">
-        <v>-173</v>
+        <v>-32.323</v>
       </c>
       <c r="X39">
-        <v>4421</v>
+        <v>-401.34100000000001</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-1471</v>
+        <v>-184.31800000000001</v>
       </c>
       <c r="AA39">
-        <v>48</v>
+        <v>39.737000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>150</v>
+        <v>48.764000000000003</v>
       </c>
       <c r="D40">
-        <v>855</v>
+        <v>475.89299999999997</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>855</v>
+        <v>475.89299999999997</v>
       </c>
       <c r="G40">
-        <v>9001</v>
+        <v>4412.3090000000002</v>
       </c>
       <c r="H40">
-        <v>118425</v>
+        <v>51770.838000000003</v>
       </c>
       <c r="I40">
-        <v>93691</v>
+        <v>39848.506999999998</v>
       </c>
       <c r="J40">
-        <v>9753</v>
+        <v>4364.942</v>
       </c>
       <c r="K40">
-        <v>318</v>
+        <v>1360.615</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>94009</v>
+        <v>41950.86</v>
       </c>
       <c r="O40">
-        <v>106111</v>
+        <v>46332.402000000002</v>
       </c>
       <c r="P40">
-        <v>10071</v>
+        <v>5725.5569999999998</v>
       </c>
       <c r="Q40">
-        <v>4526</v>
+        <v>-184.864</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>15703</v>
+        <v>11117</v>
       </c>
       <c r="T40">
-        <v>12314</v>
+        <v>5438.4359999999997</v>
       </c>
       <c r="U40">
-        <v>6293</v>
+        <v>1125.7760000000001</v>
       </c>
       <c r="V40">
-        <v>212</v>
+        <v>468.51600000000002</v>
       </c>
       <c r="W40">
-        <v>-171</v>
+        <v>-32.281999999999996</v>
       </c>
       <c r="X40">
-        <v>4361</v>
+        <v>-215.654</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>2213</v>
+        <v>210.852</v>
       </c>
       <c r="AA40">
-        <v>150</v>
+        <v>48.764000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>303</v>
+        <v>100.946</v>
       </c>
       <c r="D41">
-        <v>1069</v>
+        <v>557.94500000000005</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1069</v>
+        <v>557.94500000000005</v>
       </c>
       <c r="G41">
-        <v>9147</v>
+        <v>4380.3100000000004</v>
       </c>
       <c r="H41">
-        <v>120116</v>
+        <v>53246.775999999998</v>
       </c>
       <c r="I41">
-        <v>95154</v>
+        <v>41072.370999999999</v>
       </c>
       <c r="J41">
-        <v>9174</v>
+        <v>3619.2820000000002</v>
       </c>
       <c r="K41">
-        <v>332</v>
+        <v>2158.9540000000002</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>95486</v>
+        <v>44011.591</v>
       </c>
       <c r="O41">
-        <v>107199</v>
+        <v>47679.373</v>
       </c>
       <c r="P41">
-        <v>9506</v>
+        <v>5778.2359999999999</v>
       </c>
       <c r="Q41">
-        <v>-18</v>
+        <v>13.45</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>15680</v>
+        <v>11279</v>
       </c>
       <c r="T41">
-        <v>12917</v>
+        <v>5567.4030000000002</v>
       </c>
       <c r="U41">
-        <v>6275</v>
+        <v>1139.2260000000001</v>
       </c>
       <c r="V41">
-        <v>549</v>
+        <v>81.466999999999999</v>
       </c>
       <c r="W41">
-        <v>-171</v>
+        <v>-32.369</v>
       </c>
       <c r="X41">
-        <v>1216</v>
+        <v>1203.277</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-713</v>
+        <v>-853.84799999999996</v>
       </c>
       <c r="AA41">
-        <v>303</v>
+        <v>100.946</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>122.9</v>
+      </c>
+      <c r="D42">
+        <v>592.54100000000005</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>592.54100000000005</v>
+      </c>
+      <c r="G42">
+        <v>4016.2289999999998</v>
+      </c>
+      <c r="H42">
+        <v>53819.642</v>
+      </c>
+      <c r="I42">
+        <v>41853.898000000001</v>
+      </c>
+      <c r="J42">
+        <v>3813.8270000000002</v>
+      </c>
+      <c r="K42">
+        <v>2277.6439999999998</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>44792.650999999998</v>
+      </c>
+      <c r="O42">
+        <v>48839.1</v>
+      </c>
+      <c r="P42">
+        <v>6091.4709999999995</v>
+      </c>
+      <c r="Q42">
+        <v>-291.33800000000002</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>11341</v>
+      </c>
+      <c r="T42">
+        <v>4980.5420000000004</v>
+      </c>
+      <c r="U42">
+        <v>847.88800000000003</v>
+      </c>
+      <c r="V42">
+        <v>-25.292999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-39.524999999999999</v>
+      </c>
+      <c r="X42">
+        <v>676.22299999999996</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-210.30799999999999</v>
+      </c>
+      <c r="AA42">
+        <v>122.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>126.446</v>
+      </c>
+      <c r="D43">
+        <v>591.89</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>591.89</v>
+      </c>
+      <c r="G43">
+        <v>3503.8040000000001</v>
+      </c>
+      <c r="H43">
+        <v>52948.508999999998</v>
+      </c>
+      <c r="I43">
+        <v>41366.487000000001</v>
+      </c>
+      <c r="J43">
+        <v>3409.5</v>
+      </c>
+      <c r="K43">
+        <v>2242.288</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-259.06299999999999</v>
+      </c>
+      <c r="N43">
+        <v>44422.025000000001</v>
+      </c>
+      <c r="O43">
+        <v>47909.91</v>
+      </c>
+      <c r="P43">
+        <v>5651.7879999999996</v>
+      </c>
+      <c r="Q43">
+        <v>360.93200000000002</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>11319</v>
+      </c>
+      <c r="T43">
+        <v>5038.5990000000002</v>
+      </c>
+      <c r="U43">
+        <v>1208.82</v>
+      </c>
+      <c r="V43">
+        <v>754.96100000000001</v>
+      </c>
+      <c r="W43">
+        <v>-16.321000000000002</v>
+      </c>
+      <c r="X43">
+        <v>-735.71299999999997</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>631.69200000000001</v>
+      </c>
+      <c r="AA43">
+        <v>126.446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>145.91800000000001</v>
+      </c>
+      <c r="D44">
+        <v>623.30700000000002</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>623.30700000000002</v>
+      </c>
+      <c r="G44">
+        <v>3185.5970000000002</v>
+      </c>
+      <c r="H44">
+        <v>53050.038999999997</v>
+      </c>
+      <c r="I44">
+        <v>41402.355000000003</v>
+      </c>
+      <c r="J44">
+        <v>3351.9319999999998</v>
+      </c>
+      <c r="K44">
+        <v>2236.21</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>44332.008000000002</v>
+      </c>
+      <c r="O44">
+        <v>47797.396000000001</v>
+      </c>
+      <c r="P44">
+        <v>5588.1419999999998</v>
+      </c>
+      <c r="Q44">
+        <v>-224.93799999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>11457</v>
+      </c>
+      <c r="T44">
+        <v>5252.643</v>
+      </c>
+      <c r="U44">
+        <v>983.88199999999995</v>
+      </c>
+      <c r="V44">
+        <v>435.39400000000001</v>
+      </c>
+      <c r="W44">
+        <v>-16.329999999999998</v>
+      </c>
+      <c r="X44">
+        <v>-243.69499999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>585.62199999999996</v>
+      </c>
+      <c r="AA44">
+        <v>145.91800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>143.39099999999999</v>
+      </c>
+      <c r="D45">
+        <v>621.45100000000002</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>621.45100000000002</v>
+      </c>
+      <c r="G45">
+        <v>4566.4989999999998</v>
+      </c>
+      <c r="H45">
+        <v>54978.707000000002</v>
+      </c>
+      <c r="I45">
+        <v>43219.726999999999</v>
+      </c>
+      <c r="J45">
+        <v>2972.9679999999998</v>
+      </c>
+      <c r="K45">
+        <v>2508.8910000000001</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>46500.928</v>
+      </c>
+      <c r="O45">
+        <v>49578.228000000003</v>
+      </c>
+      <c r="P45">
+        <v>5481.8590000000004</v>
+      </c>
+      <c r="Q45">
+        <v>1206.394</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>11473</v>
+      </c>
+      <c r="T45">
+        <v>5400.4790000000003</v>
+      </c>
+      <c r="U45">
+        <v>2190.2759999999998</v>
+      </c>
+      <c r="V45">
+        <v>196.35900000000001</v>
+      </c>
+      <c r="W45">
+        <v>-17.501000000000001</v>
+      </c>
+      <c r="X45">
+        <v>1553.0440000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-539.822</v>
+      </c>
+      <c r="AA45">
+        <v>143.39099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>126.858</v>
+      </c>
+      <c r="D46">
+        <v>616.73500000000001</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>616.73500000000001</v>
+      </c>
+      <c r="G46">
+        <v>4651.8490000000002</v>
+      </c>
+      <c r="H46">
+        <v>54450.652000000002</v>
+      </c>
+      <c r="I46">
+        <v>43279.625</v>
+      </c>
+      <c r="J46">
+        <v>3032.8980000000001</v>
+      </c>
+      <c r="K46">
+        <v>1698.3720000000001</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>45799.343999999997</v>
+      </c>
+      <c r="O46">
+        <v>49032.552000000003</v>
+      </c>
+      <c r="P46">
+        <v>4796.2290000000003</v>
+      </c>
+      <c r="Q46">
+        <v>-1074.308</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>11245</v>
+      </c>
+      <c r="T46">
+        <v>5418.1</v>
+      </c>
+      <c r="U46">
+        <v>1115.9680000000001</v>
+      </c>
+      <c r="V46">
+        <v>208.07300000000001</v>
+      </c>
+      <c r="W46">
+        <v>-42.252000000000002</v>
+      </c>
+      <c r="X46">
+        <v>-595.63699999999994</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>610.74900000000002</v>
+      </c>
+      <c r="AA46">
+        <v>126.858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>153.27000000000001</v>
+      </c>
+      <c r="D47">
+        <v>649.15599999999995</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>649.15599999999995</v>
+      </c>
+      <c r="G47">
+        <v>3426.9059999999999</v>
+      </c>
+      <c r="H47">
+        <v>55876.654000000002</v>
+      </c>
+      <c r="I47">
+        <v>45008.964</v>
+      </c>
+      <c r="J47">
+        <v>2609.3679999999999</v>
+      </c>
+      <c r="K47">
+        <v>1742.4559999999999</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-522.87800000000004</v>
+      </c>
+      <c r="N47">
+        <v>47651.356</v>
+      </c>
+      <c r="O47">
+        <v>50326.826000000001</v>
+      </c>
+      <c r="P47">
+        <v>4351.8239999999996</v>
+      </c>
+      <c r="Q47">
+        <v>-4.7510000000000003</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>11166</v>
+      </c>
+      <c r="T47">
+        <v>5549.8280000000004</v>
+      </c>
+      <c r="U47">
+        <v>1111.2170000000001</v>
+      </c>
+      <c r="V47">
+        <v>277.27</v>
+      </c>
+      <c r="W47">
+        <v>-42.350999999999999</v>
+      </c>
+      <c r="X47">
+        <v>521.25800000000004</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-755.74300000000005</v>
+      </c>
+      <c r="AA47">
+        <v>153.27000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>152.70599999999999</v>
+      </c>
+      <c r="D48">
+        <v>652.92600000000004</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>652.92600000000004</v>
+      </c>
+      <c r="G48">
+        <v>5106.99</v>
+      </c>
+      <c r="H48">
+        <v>56622.959000000003</v>
+      </c>
+      <c r="I48">
+        <v>46076.074999999997</v>
+      </c>
+      <c r="J48">
+        <v>2563.9119999999998</v>
+      </c>
+      <c r="K48">
+        <v>1469.1379999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>48320.34</v>
+      </c>
+      <c r="O48">
+        <v>50973.728000000003</v>
+      </c>
+      <c r="P48">
+        <v>4033.05</v>
+      </c>
+      <c r="Q48">
+        <v>107.371</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>11417</v>
+      </c>
+      <c r="T48">
+        <v>5649.2309999999998</v>
+      </c>
+      <c r="U48">
+        <v>1218.588</v>
+      </c>
+      <c r="V48">
+        <v>283.505</v>
+      </c>
+      <c r="W48">
+        <v>-42.518000000000001</v>
+      </c>
+      <c r="X48">
+        <v>524.74699999999996</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>341.29199999999997</v>
+      </c>
+      <c r="AA48">
+        <v>152.70599999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>167.767</v>
+      </c>
+      <c r="D49">
+        <v>669.14</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>669.14</v>
+      </c>
+      <c r="G49">
+        <v>4447.0619999999999</v>
+      </c>
+      <c r="H49">
+        <v>56443</v>
+      </c>
+      <c r="I49">
+        <v>46741.286</v>
+      </c>
+      <c r="J49">
+        <v>1501.2919999999999</v>
+      </c>
+      <c r="K49">
+        <v>1520.9649999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>49042.773000000001</v>
+      </c>
+      <c r="O49">
+        <v>50635.396000000001</v>
+      </c>
+      <c r="P49">
+        <v>3022.2570000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-420.98700000000002</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>11731</v>
+      </c>
+      <c r="T49">
+        <v>5807.6040000000003</v>
+      </c>
+      <c r="U49">
+        <v>797.601</v>
+      </c>
+      <c r="V49">
+        <v>113.90300000000001</v>
+      </c>
+      <c r="W49">
+        <v>-42.267000000000003</v>
+      </c>
+      <c r="X49">
+        <v>-426.51499999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-24.859000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>167.767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>167.279</v>
+      </c>
+      <c r="D50">
+        <v>682.928</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>682.928</v>
+      </c>
+      <c r="G50">
+        <v>3526.7440000000001</v>
+      </c>
+      <c r="H50">
+        <v>56153.184999999998</v>
+      </c>
+      <c r="I50">
+        <v>46252.682999999997</v>
+      </c>
+      <c r="J50">
+        <v>2314.942</v>
+      </c>
+      <c r="K50">
+        <v>739.81100000000004</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>47806.108999999997</v>
+      </c>
+      <c r="O50">
+        <v>50362.974000000002</v>
+      </c>
+      <c r="P50">
+        <v>3104.645</v>
+      </c>
+      <c r="Q50">
+        <v>465.20499999999998</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>5790.2110000000002</v>
+      </c>
+      <c r="U50">
+        <v>1262.806</v>
+      </c>
+      <c r="V50">
+        <v>327.452</v>
+      </c>
+      <c r="W50">
+        <v>-42.198999999999998</v>
+      </c>
+      <c r="X50">
+        <v>-391.80399999999997</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>32.447000000000003</v>
+      </c>
+      <c r="AA50">
+        <v>167.279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>153.274</v>
+      </c>
+      <c r="D51">
+        <v>637.54499999999996</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>637.54499999999996</v>
+      </c>
+      <c r="G51">
+        <v>3133.3690000000001</v>
+      </c>
+      <c r="H51">
+        <v>56054.966</v>
+      </c>
+      <c r="I51">
+        <v>46867.141000000003</v>
+      </c>
+      <c r="J51">
+        <v>1528.4659999999999</v>
+      </c>
+      <c r="K51">
+        <v>940.25400000000002</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-1002.567</v>
+      </c>
+      <c r="N51">
+        <v>48473.474999999999</v>
+      </c>
+      <c r="O51">
+        <v>50187.828000000001</v>
+      </c>
+      <c r="P51">
+        <v>2468.7199999999998</v>
+      </c>
+      <c r="Q51">
+        <v>-434.11799999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>12052</v>
+      </c>
+      <c r="T51">
+        <v>5867.1379999999999</v>
+      </c>
+      <c r="U51">
+        <v>828.68799999999999</v>
+      </c>
+      <c r="V51">
+        <v>211.90899999999999</v>
+      </c>
+      <c r="W51">
+        <v>-41.655999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-130.346</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>137.32900000000001</v>
+      </c>
+      <c r="AA51">
+        <v>153.274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>151</v>
+      </c>
+      <c r="D52">
+        <v>644.19399999999996</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>644.19399999999996</v>
+      </c>
+      <c r="G52">
+        <v>2782.5940000000001</v>
+      </c>
+      <c r="H52">
+        <v>56113.686999999998</v>
+      </c>
+      <c r="I52">
+        <v>46331.434000000001</v>
+      </c>
+      <c r="J52">
+        <v>2252.9140000000002</v>
+      </c>
+      <c r="K52">
+        <v>810.37699999999995</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>47877.322999999997</v>
+      </c>
+      <c r="O52">
+        <v>50330.171999999999</v>
+      </c>
+      <c r="P52">
+        <v>3063.2910000000002</v>
+      </c>
+      <c r="Q52">
+        <v>165.21799999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>12155</v>
+      </c>
+      <c r="T52">
+        <v>5783.5150000000003</v>
+      </c>
+      <c r="U52">
+        <v>993.90599999999995</v>
+      </c>
+      <c r="V52">
+        <v>197.179</v>
+      </c>
+      <c r="W52">
+        <v>-41.856000000000002</v>
+      </c>
+      <c r="X52">
+        <v>58.280999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>135.03200000000001</v>
+      </c>
+      <c r="AA52">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>178.83600000000001</v>
+      </c>
+      <c r="D53">
+        <v>667.351</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>667.351</v>
+      </c>
+      <c r="G53">
+        <v>2835.4810000000002</v>
+      </c>
+      <c r="H53">
+        <v>56648.250999999997</v>
+      </c>
+      <c r="I53">
+        <v>46564.046000000002</v>
+      </c>
+      <c r="J53">
+        <v>2349.6179999999999</v>
+      </c>
+      <c r="K53">
+        <v>811.44399999999996</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>48103.402999999998</v>
+      </c>
+      <c r="O53">
+        <v>50686.671999999999</v>
+      </c>
+      <c r="P53">
+        <v>3161.0619999999999</v>
+      </c>
+      <c r="Q53">
+        <v>113.752</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>11956</v>
+      </c>
+      <c r="T53">
+        <v>5961.5789999999997</v>
+      </c>
+      <c r="U53">
+        <v>1107.6579999999999</v>
+      </c>
+      <c r="V53">
+        <v>404.20600000000002</v>
+      </c>
+      <c r="W53">
+        <v>-49.444000000000003</v>
+      </c>
+      <c r="X53">
+        <v>316.39100000000002</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>321.94</v>
+      </c>
+      <c r="AA53">
+        <v>178.83600000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>158.172</v>
+      </c>
+      <c r="D54">
+        <v>655.64599999999996</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>655.64599999999996</v>
+      </c>
+      <c r="G54">
+        <v>2678.3739999999998</v>
+      </c>
+      <c r="H54">
+        <v>59467.173999999999</v>
+      </c>
+      <c r="I54">
+        <v>47506.718000000001</v>
+      </c>
+      <c r="J54">
+        <v>2333.163</v>
+      </c>
+      <c r="K54">
+        <v>672.00099999999998</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>50930.989000000001</v>
+      </c>
+      <c r="O54">
+        <v>53377.021000000001</v>
+      </c>
+      <c r="P54">
+        <v>4930.2730000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-106.526</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>11964</v>
+      </c>
+      <c r="T54">
+        <v>6090.1530000000002</v>
+      </c>
+      <c r="U54">
+        <v>1001.1319999999999</v>
+      </c>
+      <c r="V54">
+        <v>199.95099999999999</v>
+      </c>
+      <c r="W54">
+        <v>-49.521000000000001</v>
+      </c>
+      <c r="X54">
+        <v>2721.0880000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-1843.529</v>
+      </c>
+      <c r="AA54">
+        <v>158.172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>149.143</v>
+      </c>
+      <c r="D55">
+        <v>664.70299999999997</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>664.70299999999997</v>
+      </c>
+      <c r="G55">
+        <v>2863.902</v>
+      </c>
+      <c r="H55">
+        <v>61145.752999999997</v>
+      </c>
+      <c r="I55">
+        <v>49348.752999999997</v>
+      </c>
+      <c r="J55">
+        <v>3156.652</v>
+      </c>
+      <c r="K55">
+        <v>1533.9349999999999</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1998.6990000000001</v>
+      </c>
+      <c r="N55">
+        <v>51736.404999999999</v>
+      </c>
+      <c r="O55">
+        <v>54969.519</v>
+      </c>
+      <c r="P55">
+        <v>4690.5870000000004</v>
+      </c>
+      <c r="Q55">
+        <v>-27.867999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>11848</v>
+      </c>
+      <c r="T55">
+        <v>6176.2340000000004</v>
+      </c>
+      <c r="U55">
+        <v>973.26400000000001</v>
+      </c>
+      <c r="V55">
+        <v>155.964</v>
+      </c>
+      <c r="W55">
+        <v>-49.11</v>
+      </c>
+      <c r="X55">
+        <v>772.68600000000004</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-240.57</v>
+      </c>
+      <c r="AA55">
+        <v>149.143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>164.619</v>
+      </c>
+      <c r="D56">
+        <v>677.38800000000003</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>677.38800000000003</v>
+      </c>
+      <c r="G56">
+        <v>3309.4720000000002</v>
+      </c>
+      <c r="H56">
+        <v>63797.112999999998</v>
+      </c>
+      <c r="I56">
+        <v>48748.764999999999</v>
+      </c>
+      <c r="J56">
+        <v>6469.3519999999999</v>
+      </c>
+      <c r="K56">
+        <v>1368.56</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>51014.794000000002</v>
+      </c>
+      <c r="O56">
+        <v>57556.322</v>
+      </c>
+      <c r="P56">
+        <v>7837.9120000000003</v>
+      </c>
+      <c r="Q56">
+        <v>245.18899999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6240.7910000000002</v>
+      </c>
+      <c r="U56">
+        <v>1218.453</v>
+      </c>
+      <c r="V56">
+        <v>226.63499999999999</v>
+      </c>
+      <c r="W56">
+        <v>-49.402999999999999</v>
+      </c>
+      <c r="X56">
+        <v>2409.2910000000002</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-594.41200000000003</v>
+      </c>
+      <c r="AA56">
+        <v>164.619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>155.01599999999999</v>
+      </c>
+      <c r="D57">
+        <v>689.20399999999995</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>689.20399999999995</v>
+      </c>
+      <c r="G57">
+        <v>2729.652</v>
+      </c>
+      <c r="H57">
+        <v>64330.629000000001</v>
+      </c>
+      <c r="I57">
+        <v>50129.837</v>
+      </c>
+      <c r="J57">
+        <v>5224.5879999999997</v>
+      </c>
+      <c r="K57">
+        <v>1668.037</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>52752.565999999999</v>
+      </c>
+      <c r="O57">
+        <v>58046.419000000002</v>
+      </c>
+      <c r="P57">
+        <v>6892.625</v>
+      </c>
+      <c r="Q57">
+        <v>-338.59100000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>11946</v>
+      </c>
+      <c r="T57">
+        <v>6284.21</v>
+      </c>
+      <c r="U57">
+        <v>879.86199999999997</v>
+      </c>
+      <c r="V57">
+        <v>246.62700000000001</v>
+      </c>
+      <c r="W57">
+        <v>-46.631</v>
+      </c>
+      <c r="X57">
+        <v>-398.88299999999998</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-129.80000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>155.01599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>163.614</v>
+      </c>
+      <c r="D58">
+        <v>711.36599999999999</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>711.36599999999999</v>
+      </c>
+      <c r="G58">
+        <v>3026.732</v>
+      </c>
+      <c r="H58">
+        <v>66298.009999999995</v>
+      </c>
+      <c r="I58">
+        <v>51732.150999999998</v>
+      </c>
+      <c r="J58">
+        <v>4335.9620000000004</v>
+      </c>
+      <c r="K58">
+        <v>1356.356</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>55436.930999999997</v>
+      </c>
+      <c r="O58">
+        <v>59969.84</v>
+      </c>
+      <c r="P58">
+        <v>7017.3180000000002</v>
+      </c>
+      <c r="Q58">
+        <v>340.70299999999997</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>11873</v>
+      </c>
+      <c r="T58">
+        <v>6328.17</v>
+      </c>
+      <c r="U58">
+        <v>1220.5650000000001</v>
+      </c>
+      <c r="V58">
+        <v>259.56</v>
+      </c>
+      <c r="W58">
+        <v>-53.645000000000003</v>
+      </c>
+      <c r="X58">
+        <v>1552.3340000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-510.39400000000001</v>
+      </c>
+      <c r="AA58">
+        <v>163.614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>165.85400000000001</v>
+      </c>
+      <c r="D59">
+        <v>686.70699999999999</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>686.70699999999999</v>
+      </c>
+      <c r="G59">
+        <v>4190.9380000000001</v>
+      </c>
+      <c r="H59">
+        <v>68002.660999999993</v>
+      </c>
+      <c r="I59">
+        <v>52832.695</v>
+      </c>
+      <c r="J59">
+        <v>5158.8360000000002</v>
+      </c>
+      <c r="K59">
+        <v>1481.9770000000001</v>
+      </c>
+      <c r="L59">
+        <v>-357.83100000000002</v>
+      </c>
+      <c r="M59">
+        <v>-750.07600000000002</v>
+      </c>
+      <c r="N59">
+        <v>56370.351000000002</v>
+      </c>
+      <c r="O59">
+        <v>61540.707000000002</v>
+      </c>
+      <c r="P59">
+        <v>7515.8130000000001</v>
+      </c>
+      <c r="Q59">
+        <v>-320.68900000000002</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>11914</v>
+      </c>
+      <c r="T59">
+        <v>6461.9539999999997</v>
+      </c>
+      <c r="U59">
+        <v>899.87599999999998</v>
+      </c>
+      <c r="V59">
+        <v>-18.257000000000001</v>
+      </c>
+      <c r="W59">
+        <v>-56.703000000000003</v>
+      </c>
+      <c r="X59">
+        <v>866.37400000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-448.24700000000001</v>
+      </c>
+      <c r="AA59">
+        <v>165.85400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>196.20599999999999</v>
+      </c>
+      <c r="D60">
+        <v>739.07</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>739.07</v>
+      </c>
+      <c r="G60">
+        <v>3612.5419999999999</v>
+      </c>
+      <c r="H60">
+        <v>68845.648000000001</v>
+      </c>
+      <c r="I60">
+        <v>53473.178999999996</v>
+      </c>
+      <c r="J60">
+        <v>5854.5839999999998</v>
+      </c>
+      <c r="K60">
+        <v>1429.588</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>56484.207000000002</v>
+      </c>
+      <c r="O60">
+        <v>62349.39</v>
+      </c>
+      <c r="P60">
+        <v>7659.1719999999996</v>
+      </c>
+      <c r="Q60">
+        <v>480.09300000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>12274</v>
+      </c>
+      <c r="T60">
+        <v>6496.2579999999998</v>
+      </c>
+      <c r="U60">
+        <v>1379.9690000000001</v>
+      </c>
+      <c r="V60">
+        <v>104.352</v>
+      </c>
+      <c r="W60">
+        <v>-56.54</v>
+      </c>
+      <c r="X60">
+        <v>728.83799999999997</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-347.48099999999999</v>
+      </c>
+      <c r="AA60">
+        <v>196.20599999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>152.58799999999999</v>
+      </c>
+      <c r="D61">
+        <v>738.57</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>738.57</v>
+      </c>
+      <c r="G61">
+        <v>3352.69</v>
+      </c>
+      <c r="H61">
+        <v>70210.178</v>
+      </c>
+      <c r="I61">
+        <v>54244.711000000003</v>
+      </c>
+      <c r="J61">
+        <v>6359.4449999999997</v>
+      </c>
+      <c r="K61">
+        <v>1343.489</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>57258.358999999997</v>
+      </c>
+      <c r="O61">
+        <v>63627.540999999997</v>
+      </c>
+      <c r="P61">
+        <v>8102.9340000000002</v>
+      </c>
+      <c r="Q61">
+        <v>-355.61099999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>12367</v>
+      </c>
+      <c r="T61">
+        <v>6582.6369999999997</v>
+      </c>
+      <c r="U61">
+        <v>1024.3579999999999</v>
+      </c>
+      <c r="V61">
+        <v>314.73099999999999</v>
+      </c>
+      <c r="W61">
+        <v>-56.23</v>
+      </c>
+      <c r="X61">
+        <v>1067.4269999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-630.58699999999999</v>
+      </c>
+      <c r="AA61">
+        <v>152.58799999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>178.309</v>
+      </c>
+      <c r="D62">
+        <v>727.89800000000002</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>727.89800000000002</v>
+      </c>
+      <c r="G62">
+        <v>2615.2220000000002</v>
+      </c>
+      <c r="H62">
+        <v>71018.301000000007</v>
+      </c>
+      <c r="I62">
+        <v>55294.978999999999</v>
+      </c>
+      <c r="J62">
+        <v>6090.2479999999996</v>
+      </c>
+      <c r="K62">
+        <v>759.62900000000002</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>58333.447</v>
+      </c>
+      <c r="O62">
+        <v>64423.695</v>
+      </c>
+      <c r="P62">
+        <v>7800.9930000000004</v>
+      </c>
+      <c r="Q62">
+        <v>-177.202</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>12243</v>
+      </c>
+      <c r="T62">
+        <v>6594.6059999999998</v>
+      </c>
+      <c r="U62">
+        <v>847.15599999999995</v>
+      </c>
+      <c r="V62">
+        <v>632.53599999999994</v>
+      </c>
+      <c r="W62">
+        <v>-54.917000000000002</v>
+      </c>
+      <c r="X62">
+        <v>859.24400000000003</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-781.28099999999995</v>
+      </c>
+      <c r="AA62">
+        <v>178.309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>171.31399999999999</v>
+      </c>
+      <c r="D63">
+        <v>733.69100000000003</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>733.69100000000003</v>
+      </c>
+      <c r="G63">
+        <v>2765.7530000000002</v>
+      </c>
+      <c r="H63">
+        <v>72644.967000000004</v>
+      </c>
+      <c r="I63">
+        <v>55628.841999999997</v>
+      </c>
+      <c r="J63">
+        <v>7935.4120000000003</v>
+      </c>
+      <c r="K63">
+        <v>806.50400000000002</v>
+      </c>
+      <c r="L63">
+        <v>-147.339</v>
+      </c>
+      <c r="M63">
+        <v>-195.47499999999999</v>
+      </c>
+      <c r="N63">
+        <v>57551.885000000002</v>
+      </c>
+      <c r="O63">
+        <v>65487.296999999999</v>
+      </c>
+      <c r="P63">
+        <v>8741.9159999999993</v>
+      </c>
+      <c r="Q63">
+        <v>-30.908000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>12386</v>
+      </c>
+      <c r="T63">
+        <v>7157.67</v>
+      </c>
+      <c r="U63">
+        <v>816.24800000000005</v>
+      </c>
+      <c r="V63">
+        <v>191.79</v>
+      </c>
+      <c r="W63">
+        <v>-64.192999999999998</v>
+      </c>
+      <c r="X63">
+        <v>1366.7449999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-278.81599999999997</v>
+      </c>
+      <c r="AA63">
+        <v>171.31399999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>174.54</v>
+      </c>
+      <c r="D64">
+        <v>759.779</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>759.779</v>
+      </c>
+      <c r="G64">
+        <v>3011.259</v>
+      </c>
+      <c r="H64">
+        <v>73954.017000000007</v>
+      </c>
+      <c r="I64">
+        <v>55043.464999999997</v>
+      </c>
+      <c r="J64">
+        <v>7929.82</v>
+      </c>
+      <c r="K64">
+        <v>2273.6799999999998</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>58516.892999999996</v>
+      </c>
+      <c r="O64">
+        <v>66446.713000000003</v>
+      </c>
+      <c r="P64">
+        <v>10203.5</v>
+      </c>
+      <c r="Q64">
+        <v>50.932000000000002</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>12363</v>
+      </c>
+      <c r="T64">
+        <v>7507.3040000000001</v>
+      </c>
+      <c r="U64">
+        <v>867.18</v>
+      </c>
+      <c r="V64">
+        <v>94.847999999999999</v>
+      </c>
+      <c r="W64">
+        <v>-75.766000000000005</v>
+      </c>
+      <c r="X64">
+        <v>962.63400000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>14.987</v>
+      </c>
+      <c r="AA64">
+        <v>174.54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>127.004</v>
+      </c>
+      <c r="D65">
+        <v>861.45699999999999</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>861.45699999999999</v>
+      </c>
+      <c r="G65">
+        <v>6872.7089999999998</v>
+      </c>
+      <c r="H65">
+        <v>100765.412</v>
+      </c>
+      <c r="I65">
+        <v>77405.096000000005</v>
+      </c>
+      <c r="J65">
+        <v>8998.5709999999999</v>
+      </c>
+      <c r="K65">
+        <v>2262.357</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>81380.076000000001</v>
+      </c>
+      <c r="O65">
+        <v>90378.646999999997</v>
+      </c>
+      <c r="P65">
+        <v>11260.928</v>
+      </c>
+      <c r="Q65">
+        <v>794.75900000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>14511</v>
+      </c>
+      <c r="T65">
+        <v>10386.764999999999</v>
+      </c>
+      <c r="U65">
+        <v>1661.9390000000001</v>
+      </c>
+      <c r="V65">
+        <v>399.16800000000001</v>
+      </c>
+      <c r="W65">
+        <v>-75.105999999999995</v>
+      </c>
+      <c r="X65">
+        <v>659.58500000000004</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>872.40099999999995</v>
+      </c>
+      <c r="AA65">
+        <v>127.004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>239.142</v>
+      </c>
+      <c r="D66">
+        <v>971.072</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>971.072</v>
+      </c>
+      <c r="G66">
+        <v>3574</v>
+      </c>
+      <c r="H66">
+        <v>99714</v>
+      </c>
+      <c r="I66">
+        <v>75608</v>
+      </c>
+      <c r="J66">
+        <v>7560</v>
+      </c>
+      <c r="K66">
+        <v>3791</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>81846</v>
+      </c>
+      <c r="O66">
+        <v>89406</v>
+      </c>
+      <c r="P66">
+        <v>12100</v>
+      </c>
+      <c r="Q66">
+        <v>-276.78300000000002</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>15993</v>
+      </c>
+      <c r="T66">
+        <v>10308</v>
+      </c>
+      <c r="U66">
+        <v>1385</v>
+      </c>
+      <c r="V66">
+        <v>529.19399999999996</v>
+      </c>
+      <c r="W66">
+        <v>-83.935000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-220.964</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-1991.5719999999999</v>
+      </c>
+      <c r="AA66">
+        <v>239.142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>208</v>
+      </c>
+      <c r="D67">
+        <v>972</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>972</v>
+      </c>
+      <c r="G67">
+        <v>3446.1190000000001</v>
+      </c>
+      <c r="H67">
+        <v>100045.50599999999</v>
+      </c>
+      <c r="I67">
+        <v>77422.509999999995</v>
+      </c>
+      <c r="J67">
+        <v>9279.14</v>
+      </c>
+      <c r="K67">
+        <v>1346.982</v>
+      </c>
+      <c r="L67">
+        <v>-2433</v>
+      </c>
+      <c r="M67">
+        <v>-48</v>
+      </c>
+      <c r="N67">
+        <v>80237.380999999994</v>
+      </c>
+      <c r="O67">
+        <v>89608.358999999997</v>
+      </c>
+      <c r="P67">
+        <v>10626.121999999999</v>
+      </c>
+      <c r="Q67">
+        <v>-75</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>16331</v>
+      </c>
+      <c r="T67">
+        <v>10437.147000000001</v>
+      </c>
+      <c r="U67">
+        <v>1308.8130000000001</v>
+      </c>
+      <c r="V67">
+        <v>396</v>
+      </c>
+      <c r="W67">
+        <v>-106</v>
+      </c>
+      <c r="X67">
+        <v>265</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-319</v>
+      </c>
+      <c r="AA67">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>272</v>
+      </c>
+      <c r="D68">
+        <v>1048</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1048</v>
+      </c>
+      <c r="G68">
+        <v>3836.2649999999999</v>
+      </c>
+      <c r="H68">
+        <v>101406.77899999999</v>
+      </c>
+      <c r="I68">
+        <v>75933.373000000007</v>
+      </c>
+      <c r="J68">
+        <v>8536.4709999999995</v>
+      </c>
+      <c r="K68">
+        <v>4631.2349999999997</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>82216.126000000004</v>
+      </c>
+      <c r="O68">
+        <v>90752.596999999994</v>
+      </c>
+      <c r="P68">
+        <v>13167.706</v>
+      </c>
+      <c r="Q68">
+        <v>205</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>16103</v>
+      </c>
+      <c r="T68">
+        <v>10654.182000000001</v>
+      </c>
+      <c r="U68">
+        <v>1515.4760000000001</v>
+      </c>
+      <c r="V68">
+        <v>163</v>
+      </c>
+      <c r="W68">
+        <v>-106</v>
+      </c>
+      <c r="X68">
+        <v>886</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>89</v>
+      </c>
+      <c r="AA68">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>274</v>
+      </c>
+      <c r="D69">
+        <v>1044</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1044</v>
+      </c>
+      <c r="G69">
+        <v>3401.1489999999999</v>
+      </c>
+      <c r="H69">
+        <v>101988.126</v>
+      </c>
+      <c r="I69">
+        <v>78445.112999999998</v>
+      </c>
+      <c r="J69">
+        <v>9200.7070000000003</v>
+      </c>
+      <c r="K69">
+        <v>1888.673</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>82088.570000000007</v>
+      </c>
+      <c r="O69">
+        <v>91289.277000000002</v>
+      </c>
+      <c r="P69">
+        <v>11089.38</v>
+      </c>
+      <c r="Q69">
+        <v>-321</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>15508</v>
+      </c>
+      <c r="T69">
+        <v>10698.849</v>
+      </c>
+      <c r="U69">
+        <v>1193.7380000000001</v>
+      </c>
+      <c r="V69">
+        <v>547</v>
+      </c>
+      <c r="W69">
+        <v>-107</v>
+      </c>
+      <c r="X69">
+        <v>254</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-519</v>
+      </c>
+      <c r="AA69">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>432</v>
+      </c>
+      <c r="D70">
+        <v>1043</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1043</v>
+      </c>
+      <c r="G70">
+        <v>2306</v>
+      </c>
+      <c r="H70">
+        <v>104185</v>
+      </c>
+      <c r="I70">
+        <v>77041</v>
+      </c>
+      <c r="J70">
+        <v>6555</v>
+      </c>
+      <c r="K70">
+        <v>5142</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>84834</v>
+      </c>
+      <c r="O70">
+        <v>93371</v>
+      </c>
+      <c r="P70">
+        <v>14348</v>
+      </c>
+      <c r="Q70">
+        <v>326</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>15770</v>
+      </c>
+      <c r="T70">
+        <v>10814</v>
+      </c>
+      <c r="U70">
+        <v>1520</v>
+      </c>
+      <c r="V70">
+        <v>848</v>
+      </c>
+      <c r="W70">
+        <v>-106</v>
+      </c>
+      <c r="X70">
+        <v>1642</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-496</v>
+      </c>
+      <c r="AA70">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>326</v>
+      </c>
+      <c r="D71">
+        <v>1011</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1011</v>
+      </c>
+      <c r="G71">
+        <v>3273</v>
+      </c>
+      <c r="H71">
+        <v>104246</v>
+      </c>
+      <c r="I71">
+        <v>79471</v>
+      </c>
+      <c r="J71">
+        <v>8618</v>
+      </c>
+      <c r="K71">
+        <v>2944</v>
+      </c>
+      <c r="L71">
+        <v>-2181</v>
+      </c>
+      <c r="M71">
+        <v>-572</v>
+      </c>
+      <c r="N71">
+        <v>84320</v>
+      </c>
+      <c r="O71">
+        <v>92938</v>
+      </c>
+      <c r="P71">
+        <v>11562</v>
+      </c>
+      <c r="Q71">
+        <v>-451</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>15599</v>
+      </c>
+      <c r="T71">
+        <v>11308</v>
+      </c>
+      <c r="U71">
+        <v>1069</v>
+      </c>
+      <c r="V71">
+        <v>294</v>
+      </c>
+      <c r="W71">
+        <v>-137</v>
+      </c>
+      <c r="X71">
+        <v>31</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>352</v>
+      </c>
+      <c r="AA71">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>355</v>
+      </c>
+      <c r="D72">
+        <v>1065</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1065</v>
+      </c>
+      <c r="G72">
+        <v>3831</v>
+      </c>
+      <c r="H72">
+        <v>105358</v>
+      </c>
+      <c r="I72">
+        <v>79587</v>
+      </c>
+      <c r="J72">
+        <v>9726</v>
+      </c>
+      <c r="K72">
+        <v>2644</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>84160</v>
+      </c>
+      <c r="O72">
+        <v>93886</v>
+      </c>
+      <c r="P72">
+        <v>12370</v>
+      </c>
+      <c r="Q72">
+        <v>313</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>11472</v>
+      </c>
+      <c r="U72">
+        <v>1382</v>
+      </c>
+      <c r="V72">
+        <v>308</v>
+      </c>
+      <c r="W72">
+        <v>-133</v>
+      </c>
+      <c r="X72">
+        <v>687</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>610</v>
+      </c>
+      <c r="AA72">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>378</v>
+      </c>
+      <c r="D73">
+        <v>1090</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1090</v>
+      </c>
+      <c r="G73">
+        <v>3732</v>
+      </c>
+      <c r="H73">
+        <v>105652</v>
+      </c>
+      <c r="I73">
+        <v>81689</v>
+      </c>
+      <c r="J73">
+        <v>9385</v>
+      </c>
+      <c r="K73">
+        <v>1568</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>85333</v>
+      </c>
+      <c r="O73">
+        <v>94718</v>
+      </c>
+      <c r="P73">
+        <v>10953</v>
+      </c>
+      <c r="Q73">
+        <v>-83</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>15772</v>
+      </c>
+      <c r="T73">
+        <v>10934</v>
+      </c>
+      <c r="U73">
+        <v>1299</v>
+      </c>
+      <c r="V73">
+        <v>542</v>
+      </c>
+      <c r="W73">
+        <v>-143</v>
+      </c>
+      <c r="X73">
+        <v>-106</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>513</v>
+      </c>
+      <c r="AA73">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>334</v>
+      </c>
+      <c r="D74">
+        <v>1107</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1107</v>
+      </c>
+      <c r="G74">
+        <v>3866</v>
+      </c>
+      <c r="H74">
+        <v>108781</v>
+      </c>
+      <c r="I74">
+        <v>84774</v>
+      </c>
+      <c r="J74">
+        <v>8051</v>
+      </c>
+      <c r="K74">
+        <v>2204</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>87552</v>
+      </c>
+      <c r="O74">
+        <v>97679</v>
+      </c>
+      <c r="P74">
+        <v>10829</v>
+      </c>
+      <c r="Q74">
+        <v>1373</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>15693</v>
+      </c>
+      <c r="T74">
+        <v>11102</v>
+      </c>
+      <c r="U74">
+        <v>2672</v>
+      </c>
+      <c r="V74">
+        <v>582</v>
+      </c>
+      <c r="W74">
+        <v>-171</v>
+      </c>
+      <c r="X74">
+        <v>2477</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>63</v>
+      </c>
+      <c r="AA74">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>358</v>
+      </c>
+      <c r="D75">
+        <v>1073</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1073</v>
+      </c>
+      <c r="G75">
+        <v>2627</v>
+      </c>
+      <c r="H75">
+        <v>108203</v>
+      </c>
+      <c r="I75">
+        <v>82155</v>
+      </c>
+      <c r="J75">
+        <v>9400</v>
+      </c>
+      <c r="K75">
+        <v>2949</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-113</v>
+      </c>
+      <c r="N75">
+        <v>85126</v>
+      </c>
+      <c r="O75">
+        <v>96771</v>
+      </c>
+      <c r="P75">
+        <v>12577</v>
+      </c>
+      <c r="Q75">
+        <v>-1336</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>15738</v>
+      </c>
+      <c r="T75">
+        <v>11432</v>
+      </c>
+      <c r="U75">
+        <v>1336</v>
+      </c>
+      <c r="V75">
+        <v>497</v>
+      </c>
+      <c r="W75">
+        <v>-166</v>
+      </c>
+      <c r="X75">
+        <v>-1318</v>
+      </c>
+      <c r="Y75">
+        <v>206</v>
+      </c>
+      <c r="Z75">
+        <v>-313</v>
+      </c>
+      <c r="AA75">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>364</v>
+      </c>
+      <c r="D76">
+        <v>1127</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1127</v>
+      </c>
+      <c r="G76">
+        <v>3148</v>
+      </c>
+      <c r="H76">
+        <v>108247</v>
+      </c>
+      <c r="I76">
+        <v>80882</v>
+      </c>
+      <c r="J76">
+        <v>8973</v>
+      </c>
+      <c r="K76">
+        <v>4278</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>85182</v>
+      </c>
+      <c r="O76">
+        <v>96579</v>
+      </c>
+      <c r="P76">
+        <v>13479</v>
+      </c>
+      <c r="Q76">
+        <v>262</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>15780</v>
+      </c>
+      <c r="T76">
+        <v>11668</v>
+      </c>
+      <c r="U76">
+        <v>1598</v>
+      </c>
+      <c r="V76">
+        <v>355</v>
+      </c>
+      <c r="W76">
+        <v>-166</v>
+      </c>
+      <c r="X76">
+        <v>-29</v>
+      </c>
+      <c r="Y76">
+        <v>206</v>
+      </c>
+      <c r="Z76">
+        <v>589</v>
+      </c>
+      <c r="AA76">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>372</v>
+      </c>
+      <c r="D77">
+        <v>1104</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1104</v>
+      </c>
+      <c r="G77">
+        <v>3529</v>
+      </c>
+      <c r="H77">
+        <v>108735</v>
+      </c>
+      <c r="I77">
+        <v>82395</v>
+      </c>
+      <c r="J77">
+        <v>9874</v>
+      </c>
+      <c r="K77">
+        <v>2300</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>84705</v>
+      </c>
+      <c r="O77">
+        <v>96826</v>
+      </c>
+      <c r="P77">
+        <v>12399</v>
+      </c>
+      <c r="Q77">
+        <v>38</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>15659</v>
+      </c>
+      <c r="T77">
+        <v>11909</v>
+      </c>
+      <c r="U77">
+        <v>1636</v>
+      </c>
+      <c r="V77">
+        <v>46</v>
+      </c>
+      <c r="W77">
+        <v>-165</v>
+      </c>
+      <c r="X77">
+        <v>176</v>
+      </c>
+      <c r="Y77">
+        <v>215</v>
+      </c>
+      <c r="Z77">
+        <v>-199</v>
+      </c>
+      <c r="AA77">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>317</v>
+      </c>
+      <c r="D78">
+        <v>1072</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1072</v>
+      </c>
+      <c r="G78">
+        <v>2749</v>
+      </c>
+      <c r="H78">
+        <v>109002</v>
+      </c>
+      <c r="I78">
+        <v>82347</v>
+      </c>
+      <c r="J78">
+        <v>7546</v>
+      </c>
+      <c r="K78">
+        <v>2710</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>87360</v>
+      </c>
+      <c r="O78">
+        <v>97207</v>
+      </c>
+      <c r="P78">
+        <v>12792</v>
+      </c>
+      <c r="Q78">
+        <v>-466</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>15664</v>
+      </c>
+      <c r="T78">
+        <v>11795</v>
+      </c>
+      <c r="U78">
+        <v>1170</v>
+      </c>
+      <c r="V78">
+        <v>676</v>
+      </c>
+      <c r="W78">
+        <v>-174</v>
+      </c>
+      <c r="X78">
+        <v>-28</v>
+      </c>
+      <c r="Y78">
+        <v>233</v>
+      </c>
+      <c r="Z78">
+        <v>-696</v>
+      </c>
+      <c r="AA78">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>48</v>
+      </c>
+      <c r="D79">
+        <v>708</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>708</v>
+      </c>
+      <c r="G79">
+        <v>4293</v>
+      </c>
+      <c r="H79">
+        <v>113897</v>
+      </c>
+      <c r="I79">
+        <v>86830</v>
+      </c>
+      <c r="J79">
+        <v>9796</v>
+      </c>
+      <c r="K79">
+        <v>3132</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1540</v>
+      </c>
+      <c r="N79">
+        <v>89962</v>
+      </c>
+      <c r="O79">
+        <v>102128</v>
+      </c>
+      <c r="P79">
+        <v>12928</v>
+      </c>
+      <c r="Q79">
+        <v>597</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>15386</v>
+      </c>
+      <c r="T79">
+        <v>11769</v>
+      </c>
+      <c r="U79">
+        <v>1767</v>
+      </c>
+      <c r="V79">
+        <v>498</v>
+      </c>
+      <c r="W79">
+        <v>-173</v>
+      </c>
+      <c r="X79">
+        <v>4421</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-1471</v>
+      </c>
+      <c r="AA79">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>150</v>
+      </c>
+      <c r="D80">
+        <v>855</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>855</v>
+      </c>
+      <c r="G80">
+        <v>9001</v>
+      </c>
+      <c r="H80">
+        <v>118425</v>
+      </c>
+      <c r="I80">
+        <v>93691</v>
+      </c>
+      <c r="J80">
+        <v>9753</v>
+      </c>
+      <c r="K80">
+        <v>318</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>94009</v>
+      </c>
+      <c r="O80">
+        <v>106111</v>
+      </c>
+      <c r="P80">
+        <v>10071</v>
+      </c>
+      <c r="Q80">
+        <v>4526</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>15703</v>
+      </c>
+      <c r="T80">
+        <v>12314</v>
+      </c>
+      <c r="U80">
+        <v>6293</v>
+      </c>
+      <c r="V80">
+        <v>212</v>
+      </c>
+      <c r="W80">
+        <v>-171</v>
+      </c>
+      <c r="X80">
+        <v>4361</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>2213</v>
+      </c>
+      <c r="AA80">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>303</v>
+      </c>
+      <c r="D81">
+        <v>1069</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1069</v>
+      </c>
+      <c r="G81">
+        <v>9147</v>
+      </c>
+      <c r="H81">
+        <v>120116</v>
+      </c>
+      <c r="I81">
+        <v>95154</v>
+      </c>
+      <c r="J81">
+        <v>9174</v>
+      </c>
+      <c r="K81">
+        <v>332</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>95486</v>
+      </c>
+      <c r="O81">
+        <v>107199</v>
+      </c>
+      <c r="P81">
+        <v>9506</v>
+      </c>
+      <c r="Q81">
+        <v>-18</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>15680</v>
+      </c>
+      <c r="T81">
+        <v>12917</v>
+      </c>
+      <c r="U81">
+        <v>6275</v>
+      </c>
+      <c r="V81">
+        <v>549</v>
+      </c>
+      <c r="W81">
+        <v>-171</v>
+      </c>
+      <c r="X81">
+        <v>1216</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-713</v>
+      </c>
+      <c r="AA81">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>316</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1130</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>1130</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>9501</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>123038</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>98948</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>6500</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>299</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>101142</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>110045</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>8871</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>320</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>15578</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>12993</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>6595</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>64</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-183</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>2743</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>177</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-2083</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>316</v>
       </c>
     </row>
